--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.687155512299199</v>
+        <v>6.687155512299194</v>
       </c>
       <c r="E2">
-        <v>26.77951444392326</v>
+        <v>26.77951444392328</v>
       </c>
       <c r="F2">
-        <v>35.78287875344439</v>
+        <v>35.78287875344435</v>
       </c>
       <c r="G2">
-        <v>29.56871246779048</v>
+        <v>29.56871246779044</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.55649814400486</v>
+        <v>17.55649814400491</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.49477714571639</v>
+        <v>39.49477714571643</v>
       </c>
       <c r="L2">
-        <v>32.24991059244237</v>
+        <v>32.24991059244243</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.47457000601268</v>
+        <v>15.47457000601271</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.169912963547286</v>
+        <v>6.169912963547331</v>
       </c>
       <c r="E3">
-        <v>25.06828418500486</v>
+        <v>25.06828418500496</v>
       </c>
       <c r="F3">
-        <v>32.82268190739769</v>
+        <v>32.82268190739783</v>
       </c>
       <c r="G3">
-        <v>27.05703227621867</v>
+        <v>27.05703227621883</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.54904451089934</v>
+        <v>16.54904451089938</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.66349219277715</v>
+        <v>36.6634921927772</v>
       </c>
       <c r="L3">
-        <v>29.96198535846449</v>
+        <v>29.96198535846454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.70639265006411</v>
+        <v>14.70639265006414</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.844518653066041</v>
+        <v>5.844518653066015</v>
       </c>
       <c r="E4">
-        <v>23.97457359557059</v>
+        <v>23.97457359557065</v>
       </c>
       <c r="F4">
-        <v>31.00841283401848</v>
+        <v>31.00841283401843</v>
       </c>
       <c r="G4">
-        <v>25.50519934517242</v>
+        <v>25.50519934517238</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.91037214011956</v>
+        <v>15.9103721401196</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>34.8473635481138</v>
+        <v>34.8473635481139</v>
       </c>
       <c r="L4">
-        <v>28.49408468299373</v>
+        <v>28.49408468299377</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.38430379045419</v>
+        <v>14.38430379045422</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.709697220490949</v>
+        <v>5.709697220490964</v>
       </c>
       <c r="E5">
-        <v>23.51785282374462</v>
+        <v>23.51785282374456</v>
       </c>
       <c r="F5">
         <v>30.35551501953244</v>
       </c>
       <c r="G5">
-        <v>24.86957741692068</v>
+        <v>24.86957741692062</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.64503218544267</v>
+        <v>15.64503218544261</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.0869544427544</v>
+        <v>34.08695444275439</v>
       </c>
       <c r="L5">
-        <v>27.87945211885945</v>
+        <v>27.87945211885947</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.33026775072943</v>
+        <v>14.3302677507294</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.687169345526985</v>
+        <v>5.687169345527009</v>
       </c>
       <c r="E6">
-        <v>23.44134453251813</v>
+        <v>23.44134453251812</v>
       </c>
       <c r="F6">
-        <v>30.24877336040769</v>
+        <v>30.24877336040773</v>
       </c>
       <c r="G6">
-        <v>24.76381990103943</v>
+        <v>24.76381990103942</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.60066683239969</v>
+        <v>15.60066683239967</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>33.95944072401444</v>
+        <v>33.95944072401441</v>
       </c>
       <c r="L6">
-        <v>27.77638370345666</v>
+        <v>27.77638370345662</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.70208580354431</v>
+        <v>14.70208580354429</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.842709706066118</v>
+        <v>5.842709706066112</v>
       </c>
       <c r="E7">
-        <v>23.96845894613633</v>
+        <v>23.96845894613647</v>
       </c>
       <c r="F7">
-        <v>30.99844352252152</v>
+        <v>30.99844352252131</v>
       </c>
       <c r="G7">
-        <v>25.49664106718695</v>
+        <v>25.49664106718678</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.90681420272742</v>
+        <v>15.90681420272753</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>34.83719164893315</v>
+        <v>34.83719164893319</v>
       </c>
       <c r="L7">
-        <v>28.48586285636055</v>
+        <v>28.48586285636059</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.26405103205827</v>
+        <v>16.26405103205829</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.510260991642772</v>
+        <v>6.510260991642824</v>
       </c>
       <c r="E8">
-        <v>26.198251127385</v>
+        <v>26.19825112738497</v>
       </c>
       <c r="F8">
-        <v>34.76093378547144</v>
+        <v>34.76093378547131</v>
       </c>
       <c r="G8">
-        <v>28.70409442722501</v>
+        <v>28.70409442722492</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.21326082795795</v>
+        <v>17.2132608279579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.53417408516853</v>
+        <v>38.53417408516855</v>
       </c>
       <c r="L8">
-        <v>31.47375390943252</v>
+        <v>31.47375390943256</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.06278171110052</v>
+        <v>19.0627817111006</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.771836919766412</v>
+        <v>7.771836919766358</v>
       </c>
       <c r="E9">
-        <v>30.24482136123819</v>
+        <v>30.24482136123815</v>
       </c>
       <c r="F9">
-        <v>42.22486367837071</v>
+        <v>42.22486367837069</v>
       </c>
       <c r="G9">
-        <v>34.9737943386784</v>
+        <v>34.97379433867837</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.62108099146546</v>
+        <v>19.62108099146544</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>45.20934689668074</v>
+        <v>45.20934689668066</v>
       </c>
       <c r="L9">
         <v>36.86383783295773</v>
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.696004134453736</v>
+        <v>8.696004134453723</v>
       </c>
       <c r="E10">
-        <v>33.05052426504736</v>
+        <v>33.05052426504733</v>
       </c>
       <c r="F10">
-        <v>47.89193444794614</v>
+        <v>47.89193444794618</v>
       </c>
       <c r="G10">
-        <v>39.68383827905369</v>
+        <v>39.68383827905371</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.31070448157066</v>
+        <v>21.31070448157064</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>49.83631663831954</v>
       </c>
       <c r="L10">
-        <v>40.59301196172823</v>
+        <v>40.59301196172822</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.82991926284393</v>
+        <v>21.829919262844</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.124303204623667</v>
+        <v>9.12430320462367</v>
       </c>
       <c r="E11">
-        <v>34.30144753950227</v>
+        <v>34.30144753950241</v>
       </c>
       <c r="F11">
-        <v>50.55738637300791</v>
+        <v>50.55738637300809</v>
       </c>
       <c r="G11">
-        <v>41.88938042859569</v>
+        <v>41.88938042859587</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.06789377446214</v>
+        <v>22.06789377446222</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>51.90341159727529</v>
+        <v>51.90341159727539</v>
       </c>
       <c r="L11">
-        <v>42.25627205352819</v>
+        <v>42.25627205352828</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.14893891835509</v>
+        <v>22.14893891835506</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.288635988784492</v>
+        <v>9.288635988784447</v>
       </c>
       <c r="E12">
-        <v>34.77280297115362</v>
+        <v>34.77280297115355</v>
       </c>
       <c r="F12">
-        <v>51.58522048734439</v>
+        <v>51.58522048734413</v>
       </c>
       <c r="G12">
-        <v>42.73854558921889</v>
+        <v>42.73854558921871</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.35371120788139</v>
+        <v>22.35371120788134</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>52.6833171173671</v>
+        <v>52.68331711736705</v>
       </c>
       <c r="L12">
-        <v>42.88328147164314</v>
+        <v>42.88328147164312</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08033220958566</v>
+        <v>22.08033220958557</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.253128643563777</v>
+        <v>9.253128643563901</v>
       </c>
       <c r="E13">
-        <v>34.6713664524404</v>
+        <v>34.6713664524403</v>
       </c>
       <c r="F13">
-        <v>51.36291826297716</v>
+        <v>51.36291826297705</v>
       </c>
       <c r="G13">
-        <v>42.55494356163759</v>
+        <v>42.55494356163754</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.29218137153948</v>
+        <v>22.29218137153941</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>52.5154279074187</v>
+        <v>52.51542790741865</v>
       </c>
       <c r="L13">
-        <v>42.74833220446703</v>
+        <v>42.74833220446694</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.85621161748786</v>
+        <v>21.8562116174879</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.137772923123062</v>
+        <v>9.137772923123041</v>
       </c>
       <c r="E14">
-        <v>34.34026403107485</v>
+        <v>34.3402640310748</v>
       </c>
       <c r="F14">
-        <v>50.64153487457751</v>
+        <v>50.64153487457757</v>
       </c>
       <c r="G14">
-        <v>41.95892719550044</v>
+        <v>41.95892719550051</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.09142130925179</v>
+        <v>22.09142130925175</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>51.96761457608157</v>
+        <v>51.96761457608158</v>
       </c>
       <c r="L14">
-        <v>42.30789996434751</v>
+        <v>42.30789996434753</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.71862247893902</v>
+        <v>21.71862247893904</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.067429485755003</v>
+        <v>9.067429485754912</v>
       </c>
       <c r="E15">
-        <v>34.13719582717077</v>
+        <v>34.13719582717075</v>
       </c>
       <c r="F15">
-        <v>50.20228571768921</v>
+        <v>50.20228571768872</v>
       </c>
       <c r="G15">
-        <v>41.5958455831576</v>
+        <v>41.59584558315723</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.96835721003609</v>
+        <v>21.96835721003608</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>51.6317806792838</v>
+        <v>51.63178067928376</v>
       </c>
       <c r="L15">
-        <v>42.03782153588845</v>
+        <v>42.03782153588844</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92475862790993</v>
+        <v>20.92475862790995</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.668251508843513</v>
+        <v>8.668251508843555</v>
       </c>
       <c r="E16">
-        <v>32.96836464462391</v>
+        <v>32.96836464462381</v>
       </c>
       <c r="F16">
-        <v>47.71996005598199</v>
+        <v>47.71996005598204</v>
       </c>
       <c r="G16">
-        <v>39.54135082020274</v>
+        <v>39.54135082020277</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.26104698601522</v>
+        <v>21.26104698601512</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>49.70067008805713</v>
+        <v>49.70067008805698</v>
       </c>
       <c r="L16">
-        <v>40.48379943327844</v>
+        <v>40.48379943327837</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.43228490428482</v>
+        <v>20.43228490428474</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.426010401074976</v>
+        <v>8.42601040107488</v>
       </c>
       <c r="E17">
-        <v>32.24562183097521</v>
+        <v>32.24562183097509</v>
       </c>
       <c r="F17">
-        <v>46.22313075742584</v>
+        <v>46.22313075742577</v>
       </c>
       <c r="G17">
-        <v>38.30011050466747</v>
+        <v>38.30011050466739</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.82464996202875</v>
+        <v>20.82464996202867</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>48.50793044840623</v>
+        <v>48.50793044840606</v>
       </c>
       <c r="L17">
-        <v>39.52317150706333</v>
+        <v>39.52317150706319</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.14678740075835</v>
+        <v>20.14678740075836</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.28734647723817</v>
+        <v>8.287346477238165</v>
       </c>
       <c r="E18">
-        <v>31.82742891829985</v>
+        <v>31.82742891829975</v>
       </c>
       <c r="F18">
-        <v>45.36997625131527</v>
+        <v>45.36997625131542</v>
       </c>
       <c r="G18">
-        <v>37.59173034881114</v>
+        <v>37.59173034881128</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.57251396200285</v>
+        <v>20.57251396200277</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>47.81815635955547</v>
+        <v>47.81815635955541</v>
       </c>
       <c r="L18">
-        <v>38.96737943377264</v>
+        <v>38.96737943377263</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.04971829362075</v>
+        <v>20.04971829362072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.240486114085503</v>
+        <v>8.240486114085407</v>
       </c>
       <c r="E19">
-        <v>31.68537502723533</v>
+        <v>31.68537502723532</v>
       </c>
       <c r="F19">
-        <v>45.08230118917268</v>
+        <v>45.08230118917249</v>
       </c>
       <c r="G19">
-        <v>37.35271364650227</v>
+        <v>37.35271364650211</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.48693241026254</v>
+        <v>20.48693241026256</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>47.58390168467188</v>
+        <v>47.58390168467183</v>
       </c>
       <c r="L19">
-        <v>38.7785870381415</v>
+        <v>38.77858703814144</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.451722093726827</v>
+        <v>8.451722093726785</v>
       </c>
       <c r="E20">
-        <v>32.3228086388991</v>
+        <v>32.32280863889926</v>
       </c>
       <c r="F20">
         <v>46.38162900426038</v>
       </c>
       <c r="G20">
-        <v>38.43163794097418</v>
+        <v>38.4316379409742</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.87121784861928</v>
+        <v>20.87121784861941</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>48.63527068211895</v>
+        <v>48.63527068211919</v>
       </c>
       <c r="L20">
-        <v>39.62575760367105</v>
+        <v>39.62575760367118</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.92210392818203</v>
+        <v>21.92210392818204</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.171587667762719</v>
+        <v>9.171587667762699</v>
       </c>
       <c r="E21">
-        <v>34.43756767659566</v>
+        <v>34.4375676765956</v>
       </c>
       <c r="F21">
-        <v>50.85286313342057</v>
+        <v>50.85286313342037</v>
       </c>
       <c r="G21">
-        <v>42.13356437615941</v>
+        <v>42.13356437615924</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.1504070360036</v>
+        <v>22.15040703600358</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>52.12857370417007</v>
+        <v>52.12857370417009</v>
       </c>
       <c r="L21">
-        <v>42.43732395372859</v>
+        <v>42.4373239537286</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.84690971800286</v>
+        <v>22.84690971800284</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.655323103587698</v>
+        <v>9.655323103587707</v>
       </c>
       <c r="E22">
-        <v>35.8070139047202</v>
+        <v>35.80701390472025</v>
       </c>
       <c r="F22">
-        <v>53.88732027673741</v>
+        <v>53.88732027673696</v>
       </c>
       <c r="G22">
-        <v>44.63815911707983</v>
+        <v>44.6381591170795</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.98166331110842</v>
+        <v>22.98166331110844</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>54.39684156160814</v>
+        <v>54.39684156160821</v>
       </c>
       <c r="L22">
-        <v>44.25973894692593</v>
+        <v>44.25973894692595</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.35433085088803</v>
+        <v>22.35433085088797</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.395496383909391</v>
+        <v>9.395496383909411</v>
       </c>
       <c r="E23">
-        <v>35.0767108702987</v>
+        <v>35.07671087029863</v>
       </c>
       <c r="F23">
-        <v>52.25493596377476</v>
+        <v>52.25493596377446</v>
       </c>
       <c r="G23">
-        <v>43.29148800513337</v>
+        <v>43.29148800513315</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.538124452081</v>
+        <v>22.53812445208096</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>53.18649952388477</v>
+        <v>53.18649952388472</v>
       </c>
       <c r="L23">
-        <v>43.28765045682492</v>
+        <v>43.28765045682485</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.46114015316984</v>
+        <v>20.46114015316983</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.44009602816249</v>
+        <v>8.440096028162513</v>
       </c>
       <c r="E24">
-        <v>32.28792091814528</v>
+        <v>32.28792091814516</v>
       </c>
       <c r="F24">
-        <v>46.30994933508778</v>
+        <v>46.30994933508785</v>
       </c>
       <c r="G24">
-        <v>38.37215845728061</v>
+        <v>38.37215845728064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.85016843784924</v>
+        <v>20.85016843784918</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>48.57771296618233</v>
+        <v>48.57771296618222</v>
       </c>
       <c r="L24">
-        <v>39.57938951301691</v>
+        <v>39.57938951301683</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.33186189053483</v>
+        <v>18.33186189053482</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.433313607492051</v>
+        <v>7.433313607492059</v>
       </c>
       <c r="E25">
-        <v>29.18237794910929</v>
+        <v>29.18237794910941</v>
       </c>
       <c r="F25">
-        <v>40.18579931929438</v>
+        <v>40.1857993192943</v>
       </c>
       <c r="G25">
-        <v>33.27008349054393</v>
+        <v>33.27008349054385</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.98510007515125</v>
+        <v>18.98510007515134</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.45844817157842</v>
+        <v>43.4584481715784</v>
       </c>
       <c r="L25">
-        <v>35.45092856607662</v>
+        <v>35.45092856607661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.687155512299194</v>
+        <v>6.687155512299199</v>
       </c>
       <c r="E2">
-        <v>26.77951444392328</v>
+        <v>26.77951444392326</v>
       </c>
       <c r="F2">
-        <v>35.78287875344435</v>
+        <v>35.78287875344439</v>
       </c>
       <c r="G2">
-        <v>29.56871246779044</v>
+        <v>29.56871246779048</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.55649814400491</v>
+        <v>17.55649814400486</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.49477714571643</v>
+        <v>39.49477714571639</v>
       </c>
       <c r="L2">
-        <v>32.24991059244243</v>
+        <v>32.24991059244237</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.47457000601271</v>
+        <v>15.47457000601268</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.169912963547331</v>
+        <v>6.169912963547286</v>
       </c>
       <c r="E3">
-        <v>25.06828418500496</v>
+        <v>25.06828418500486</v>
       </c>
       <c r="F3">
-        <v>32.82268190739783</v>
+        <v>32.82268190739769</v>
       </c>
       <c r="G3">
-        <v>27.05703227621883</v>
+        <v>27.05703227621867</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.54904451089938</v>
+        <v>16.54904451089934</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.6634921927772</v>
+        <v>36.66349219277715</v>
       </c>
       <c r="L3">
-        <v>29.96198535846454</v>
+        <v>29.96198535846449</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.70639265006414</v>
+        <v>14.70639265006411</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.844518653066015</v>
+        <v>5.844518653066041</v>
       </c>
       <c r="E4">
-        <v>23.97457359557065</v>
+        <v>23.97457359557059</v>
       </c>
       <c r="F4">
-        <v>31.00841283401843</v>
+        <v>31.00841283401848</v>
       </c>
       <c r="G4">
-        <v>25.50519934517238</v>
+        <v>25.50519934517242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.9103721401196</v>
+        <v>15.91037214011956</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>34.8473635481139</v>
+        <v>34.8473635481138</v>
       </c>
       <c r="L4">
-        <v>28.49408468299377</v>
+        <v>28.49408468299373</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.38430379045422</v>
+        <v>14.38430379045419</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.709697220490964</v>
+        <v>5.709697220490949</v>
       </c>
       <c r="E5">
-        <v>23.51785282374456</v>
+        <v>23.51785282374462</v>
       </c>
       <c r="F5">
         <v>30.35551501953244</v>
       </c>
       <c r="G5">
-        <v>24.86957741692062</v>
+        <v>24.86957741692068</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.64503218544261</v>
+        <v>15.64503218544267</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.08695444275439</v>
+        <v>34.0869544427544</v>
       </c>
       <c r="L5">
-        <v>27.87945211885947</v>
+        <v>27.87945211885945</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.3302677507294</v>
+        <v>14.33026775072943</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.687169345527009</v>
+        <v>5.687169345526985</v>
       </c>
       <c r="E6">
-        <v>23.44134453251812</v>
+        <v>23.44134453251813</v>
       </c>
       <c r="F6">
-        <v>30.24877336040773</v>
+        <v>30.24877336040769</v>
       </c>
       <c r="G6">
-        <v>24.76381990103942</v>
+        <v>24.76381990103943</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.60066683239967</v>
+        <v>15.60066683239969</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>33.95944072401441</v>
+        <v>33.95944072401444</v>
       </c>
       <c r="L6">
-        <v>27.77638370345662</v>
+        <v>27.77638370345666</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.70208580354429</v>
+        <v>14.70208580354431</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.842709706066112</v>
+        <v>5.842709706066118</v>
       </c>
       <c r="E7">
-        <v>23.96845894613647</v>
+        <v>23.96845894613633</v>
       </c>
       <c r="F7">
-        <v>30.99844352252131</v>
+        <v>30.99844352252152</v>
       </c>
       <c r="G7">
-        <v>25.49664106718678</v>
+        <v>25.49664106718695</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.90681420272753</v>
+        <v>15.90681420272742</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>34.83719164893319</v>
+        <v>34.83719164893315</v>
       </c>
       <c r="L7">
-        <v>28.48586285636059</v>
+        <v>28.48586285636055</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.26405103205829</v>
+        <v>16.26405103205827</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.510260991642824</v>
+        <v>6.510260991642772</v>
       </c>
       <c r="E8">
-        <v>26.19825112738497</v>
+        <v>26.198251127385</v>
       </c>
       <c r="F8">
-        <v>34.76093378547131</v>
+        <v>34.76093378547144</v>
       </c>
       <c r="G8">
-        <v>28.70409442722492</v>
+        <v>28.70409442722501</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.2132608279579</v>
+        <v>17.21326082795795</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.53417408516855</v>
+        <v>38.53417408516853</v>
       </c>
       <c r="L8">
-        <v>31.47375390943256</v>
+        <v>31.47375390943252</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.0627817111006</v>
+        <v>19.06278171110052</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.771836919766358</v>
+        <v>7.771836919766412</v>
       </c>
       <c r="E9">
-        <v>30.24482136123815</v>
+        <v>30.24482136123819</v>
       </c>
       <c r="F9">
-        <v>42.22486367837069</v>
+        <v>42.22486367837071</v>
       </c>
       <c r="G9">
-        <v>34.97379433867837</v>
+        <v>34.9737943386784</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.62108099146544</v>
+        <v>19.62108099146546</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>45.20934689668066</v>
+        <v>45.20934689668074</v>
       </c>
       <c r="L9">
         <v>36.86383783295773</v>
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.696004134453723</v>
+        <v>8.696004134453736</v>
       </c>
       <c r="E10">
-        <v>33.05052426504733</v>
+        <v>33.05052426504736</v>
       </c>
       <c r="F10">
-        <v>47.89193444794618</v>
+        <v>47.89193444794614</v>
       </c>
       <c r="G10">
-        <v>39.68383827905371</v>
+        <v>39.68383827905369</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.31070448157064</v>
+        <v>21.31070448157066</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>49.83631663831954</v>
       </c>
       <c r="L10">
-        <v>40.59301196172822</v>
+        <v>40.59301196172823</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.829919262844</v>
+        <v>21.82991926284393</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.12430320462367</v>
+        <v>9.124303204623667</v>
       </c>
       <c r="E11">
-        <v>34.30144753950241</v>
+        <v>34.30144753950227</v>
       </c>
       <c r="F11">
-        <v>50.55738637300809</v>
+        <v>50.55738637300791</v>
       </c>
       <c r="G11">
-        <v>41.88938042859587</v>
+        <v>41.88938042859569</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.06789377446222</v>
+        <v>22.06789377446214</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>51.90341159727539</v>
+        <v>51.90341159727529</v>
       </c>
       <c r="L11">
-        <v>42.25627205352828</v>
+        <v>42.25627205352819</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.14893891835506</v>
+        <v>22.14893891835509</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.288635988784447</v>
+        <v>9.288635988784492</v>
       </c>
       <c r="E12">
-        <v>34.77280297115355</v>
+        <v>34.77280297115362</v>
       </c>
       <c r="F12">
-        <v>51.58522048734413</v>
+        <v>51.58522048734439</v>
       </c>
       <c r="G12">
-        <v>42.73854558921871</v>
+        <v>42.73854558921889</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.35371120788134</v>
+        <v>22.35371120788139</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>52.68331711736705</v>
+        <v>52.6833171173671</v>
       </c>
       <c r="L12">
-        <v>42.88328147164312</v>
+        <v>42.88328147164314</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08033220958557</v>
+        <v>22.08033220958566</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.253128643563901</v>
+        <v>9.253128643563777</v>
       </c>
       <c r="E13">
-        <v>34.6713664524403</v>
+        <v>34.6713664524404</v>
       </c>
       <c r="F13">
-        <v>51.36291826297705</v>
+        <v>51.36291826297716</v>
       </c>
       <c r="G13">
-        <v>42.55494356163754</v>
+        <v>42.55494356163759</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.29218137153941</v>
+        <v>22.29218137153948</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>52.51542790741865</v>
+        <v>52.5154279074187</v>
       </c>
       <c r="L13">
-        <v>42.74833220446694</v>
+        <v>42.74833220446703</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.8562116174879</v>
+        <v>21.85621161748786</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.137772923123041</v>
+        <v>9.137772923123062</v>
       </c>
       <c r="E14">
-        <v>34.3402640310748</v>
+        <v>34.34026403107485</v>
       </c>
       <c r="F14">
-        <v>50.64153487457757</v>
+        <v>50.64153487457751</v>
       </c>
       <c r="G14">
-        <v>41.95892719550051</v>
+        <v>41.95892719550044</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.09142130925175</v>
+        <v>22.09142130925179</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>51.96761457608158</v>
+        <v>51.96761457608157</v>
       </c>
       <c r="L14">
-        <v>42.30789996434753</v>
+        <v>42.30789996434751</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.71862247893904</v>
+        <v>21.71862247893902</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.067429485754912</v>
+        <v>9.067429485755003</v>
       </c>
       <c r="E15">
-        <v>34.13719582717075</v>
+        <v>34.13719582717077</v>
       </c>
       <c r="F15">
-        <v>50.20228571768872</v>
+        <v>50.20228571768921</v>
       </c>
       <c r="G15">
-        <v>41.59584558315723</v>
+        <v>41.5958455831576</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.96835721003608</v>
+        <v>21.96835721003609</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>51.63178067928376</v>
+        <v>51.6317806792838</v>
       </c>
       <c r="L15">
-        <v>42.03782153588844</v>
+        <v>42.03782153588845</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92475862790995</v>
+        <v>20.92475862790993</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.668251508843555</v>
+        <v>8.668251508843513</v>
       </c>
       <c r="E16">
-        <v>32.96836464462381</v>
+        <v>32.96836464462391</v>
       </c>
       <c r="F16">
-        <v>47.71996005598204</v>
+        <v>47.71996005598199</v>
       </c>
       <c r="G16">
-        <v>39.54135082020277</v>
+        <v>39.54135082020274</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.26104698601512</v>
+        <v>21.26104698601522</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>49.70067008805698</v>
+        <v>49.70067008805713</v>
       </c>
       <c r="L16">
-        <v>40.48379943327837</v>
+        <v>40.48379943327844</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.43228490428474</v>
+        <v>20.43228490428482</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.42601040107488</v>
+        <v>8.426010401074976</v>
       </c>
       <c r="E17">
-        <v>32.24562183097509</v>
+        <v>32.24562183097521</v>
       </c>
       <c r="F17">
-        <v>46.22313075742577</v>
+        <v>46.22313075742584</v>
       </c>
       <c r="G17">
-        <v>38.30011050466739</v>
+        <v>38.30011050466747</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.82464996202867</v>
+        <v>20.82464996202875</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>48.50793044840606</v>
+        <v>48.50793044840623</v>
       </c>
       <c r="L17">
-        <v>39.52317150706319</v>
+        <v>39.52317150706333</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.14678740075836</v>
+        <v>20.14678740075835</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.287346477238165</v>
+        <v>8.28734647723817</v>
       </c>
       <c r="E18">
-        <v>31.82742891829975</v>
+        <v>31.82742891829985</v>
       </c>
       <c r="F18">
-        <v>45.36997625131542</v>
+        <v>45.36997625131527</v>
       </c>
       <c r="G18">
-        <v>37.59173034881128</v>
+        <v>37.59173034881114</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.57251396200277</v>
+        <v>20.57251396200285</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>47.81815635955541</v>
+        <v>47.81815635955547</v>
       </c>
       <c r="L18">
-        <v>38.96737943377263</v>
+        <v>38.96737943377264</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.04971829362072</v>
+        <v>20.04971829362075</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.240486114085407</v>
+        <v>8.240486114085503</v>
       </c>
       <c r="E19">
-        <v>31.68537502723532</v>
+        <v>31.68537502723533</v>
       </c>
       <c r="F19">
-        <v>45.08230118917249</v>
+        <v>45.08230118917268</v>
       </c>
       <c r="G19">
-        <v>37.35271364650211</v>
+        <v>37.35271364650227</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.48693241026256</v>
+        <v>20.48693241026254</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>47.58390168467183</v>
+        <v>47.58390168467188</v>
       </c>
       <c r="L19">
-        <v>38.77858703814144</v>
+        <v>38.7785870381415</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.451722093726785</v>
+        <v>8.451722093726827</v>
       </c>
       <c r="E20">
-        <v>32.32280863889926</v>
+        <v>32.3228086388991</v>
       </c>
       <c r="F20">
         <v>46.38162900426038</v>
       </c>
       <c r="G20">
-        <v>38.4316379409742</v>
+        <v>38.43163794097418</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.87121784861941</v>
+        <v>20.87121784861928</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>48.63527068211919</v>
+        <v>48.63527068211895</v>
       </c>
       <c r="L20">
-        <v>39.62575760367118</v>
+        <v>39.62575760367105</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.92210392818204</v>
+        <v>21.92210392818203</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.171587667762699</v>
+        <v>9.171587667762719</v>
       </c>
       <c r="E21">
-        <v>34.4375676765956</v>
+        <v>34.43756767659566</v>
       </c>
       <c r="F21">
-        <v>50.85286313342037</v>
+        <v>50.85286313342057</v>
       </c>
       <c r="G21">
-        <v>42.13356437615924</v>
+        <v>42.13356437615941</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.15040703600358</v>
+        <v>22.1504070360036</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>52.12857370417009</v>
+        <v>52.12857370417007</v>
       </c>
       <c r="L21">
-        <v>42.4373239537286</v>
+        <v>42.43732395372859</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.84690971800284</v>
+        <v>22.84690971800286</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.655323103587707</v>
+        <v>9.655323103587698</v>
       </c>
       <c r="E22">
-        <v>35.80701390472025</v>
+        <v>35.8070139047202</v>
       </c>
       <c r="F22">
-        <v>53.88732027673696</v>
+        <v>53.88732027673741</v>
       </c>
       <c r="G22">
-        <v>44.6381591170795</v>
+        <v>44.63815911707983</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.98166331110844</v>
+        <v>22.98166331110842</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>54.39684156160821</v>
+        <v>54.39684156160814</v>
       </c>
       <c r="L22">
-        <v>44.25973894692595</v>
+        <v>44.25973894692593</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.35433085088797</v>
+        <v>22.35433085088803</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.395496383909411</v>
+        <v>9.395496383909391</v>
       </c>
       <c r="E23">
-        <v>35.07671087029863</v>
+        <v>35.0767108702987</v>
       </c>
       <c r="F23">
-        <v>52.25493596377446</v>
+        <v>52.25493596377476</v>
       </c>
       <c r="G23">
-        <v>43.29148800513315</v>
+        <v>43.29148800513337</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.53812445208096</v>
+        <v>22.538124452081</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>53.18649952388472</v>
+        <v>53.18649952388477</v>
       </c>
       <c r="L23">
-        <v>43.28765045682485</v>
+        <v>43.28765045682492</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.46114015316983</v>
+        <v>20.46114015316984</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.440096028162513</v>
+        <v>8.44009602816249</v>
       </c>
       <c r="E24">
-        <v>32.28792091814516</v>
+        <v>32.28792091814528</v>
       </c>
       <c r="F24">
-        <v>46.30994933508785</v>
+        <v>46.30994933508778</v>
       </c>
       <c r="G24">
-        <v>38.37215845728064</v>
+        <v>38.37215845728061</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.85016843784918</v>
+        <v>20.85016843784924</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>48.57771296618222</v>
+        <v>48.57771296618233</v>
       </c>
       <c r="L24">
-        <v>39.57938951301683</v>
+        <v>39.57938951301691</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.33186189053482</v>
+        <v>18.33186189053483</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.433313607492059</v>
+        <v>7.433313607492051</v>
       </c>
       <c r="E25">
-        <v>29.18237794910941</v>
+        <v>29.18237794910929</v>
       </c>
       <c r="F25">
-        <v>40.1857993192943</v>
+        <v>40.18579931929438</v>
       </c>
       <c r="G25">
-        <v>33.27008349054385</v>
+        <v>33.27008349054393</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.98510007515134</v>
+        <v>18.98510007515125</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.4584481715784</v>
+        <v>43.45844817157842</v>
       </c>
       <c r="L25">
-        <v>35.45092856607661</v>
+        <v>35.45092856607662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.66867994732678</v>
+        <v>16.66806441187655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.687155512299199</v>
+        <v>6.677731389613268</v>
       </c>
       <c r="E2">
-        <v>26.77951444392326</v>
+        <v>26.77409646606155</v>
       </c>
       <c r="F2">
-        <v>35.78287875344439</v>
+        <v>35.7421719831567</v>
       </c>
       <c r="G2">
-        <v>29.56871246779048</v>
+        <v>29.60590837969119</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.28625607537676</v>
       </c>
       <c r="I2">
-        <v>17.55649814400486</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>17.55656905142656</v>
       </c>
       <c r="K2">
-        <v>39.49477714571639</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.24991059244237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>39.49202575739698</v>
+      </c>
+      <c r="M2">
+        <v>32.24768055147397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.47457000601268</v>
+        <v>15.47411102429856</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.169912963547286</v>
+        <v>6.161461657431485</v>
       </c>
       <c r="E3">
-        <v>25.06828418500486</v>
+        <v>25.06357467427963</v>
       </c>
       <c r="F3">
-        <v>32.82268190739769</v>
+        <v>32.78565602347656</v>
       </c>
       <c r="G3">
-        <v>27.05703227621867</v>
+        <v>27.09142828414048</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.87516885387469</v>
       </c>
       <c r="I3">
-        <v>16.54904451089934</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.54924853713627</v>
       </c>
       <c r="K3">
-        <v>36.66349219277715</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.96198535846449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>36.6613621149471</v>
+      </c>
+      <c r="M3">
+        <v>29.96023771710594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.70639265006411</v>
+        <v>14.70601973786227</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.844518653066041</v>
+        <v>5.83666789785804</v>
       </c>
       <c r="E4">
-        <v>23.97457359557059</v>
+        <v>23.97029956930472</v>
       </c>
       <c r="F4">
-        <v>31.00841283401848</v>
+        <v>30.97360233699958</v>
       </c>
       <c r="G4">
-        <v>25.50519934517242</v>
+        <v>25.53783476375336</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.39593574040265</v>
       </c>
       <c r="I4">
-        <v>15.91037214011956</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.91065254248341</v>
       </c>
       <c r="K4">
-        <v>34.8473635481138</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.49408468299373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>34.84558172162311</v>
+      </c>
+      <c r="M4">
+        <v>28.49261006999289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.38430379045419</v>
+        <v>14.3839638846033</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.709697220490949</v>
+        <v>5.702093170392438</v>
       </c>
       <c r="E5">
-        <v>23.51785282374462</v>
+        <v>23.51375787850854</v>
       </c>
       <c r="F5">
-        <v>30.35551501953244</v>
+        <v>30.32287930112675</v>
       </c>
       <c r="G5">
-        <v>24.86957741692068</v>
+        <v>24.90148727621669</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.8550015225457</v>
       </c>
       <c r="I5">
-        <v>15.64503218544267</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.64534304352843</v>
       </c>
       <c r="K5">
-        <v>34.0869544427544</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.87945211885945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>34.08530804340793</v>
+      </c>
+      <c r="M5">
+        <v>27.87808435441104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.33026775072943</v>
+        <v>14.3299332122014</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.687169345526985</v>
+        <v>5.679606410568531</v>
       </c>
       <c r="E6">
-        <v>23.44134453251813</v>
+        <v>23.43727946165515</v>
       </c>
       <c r="F6">
-        <v>30.24877336040769</v>
+        <v>30.21628903267559</v>
       </c>
       <c r="G6">
-        <v>24.76381990103943</v>
+        <v>24.7956088581007</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.76927471787297</v>
       </c>
       <c r="I6">
-        <v>15.60066683239969</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.60098272539084</v>
       </c>
       <c r="K6">
-        <v>33.95944072401444</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.77638370345666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>33.95781646822909</v>
+      </c>
+      <c r="M6">
+        <v>27.77503345097369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.70208580354431</v>
+        <v>14.70171334431608</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.842709706066118</v>
+        <v>5.834862268605208</v>
       </c>
       <c r="E7">
-        <v>23.96845894613633</v>
+        <v>23.96418732662427</v>
       </c>
       <c r="F7">
-        <v>30.99844352252152</v>
+        <v>30.96364513425252</v>
       </c>
       <c r="G7">
-        <v>25.49664106718695</v>
+        <v>25.52926673045802</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.38780366010077</v>
       </c>
       <c r="I7">
-        <v>15.90681420272742</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.90709501770392</v>
       </c>
       <c r="K7">
-        <v>34.83719164893315</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.48586285636055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>34.83541167292451</v>
+      </c>
+      <c r="M7">
+        <v>28.48438970054899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.26405103205827</v>
+        <v>16.26349187645667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.510260991642772</v>
+        <v>6.5011723870015</v>
       </c>
       <c r="E8">
-        <v>26.198251127385</v>
+        <v>26.19307829498326</v>
       </c>
       <c r="F8">
-        <v>34.76093378547144</v>
+        <v>34.721508721109</v>
       </c>
       <c r="G8">
-        <v>28.70409442722501</v>
+        <v>28.7403349802914</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.45417873130389</v>
       </c>
       <c r="I8">
-        <v>17.21326082795795</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>17.21337918986811</v>
       </c>
       <c r="K8">
-        <v>38.53417408516853</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.47375390943252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>38.53164507539048</v>
+      </c>
+      <c r="M8">
+        <v>31.4716959515702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.06278171110052</v>
+        <v>19.06174831383088</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.771836919766412</v>
+        <v>7.76027388131025</v>
       </c>
       <c r="E9">
-        <v>30.24482136123819</v>
+        <v>30.23780286459357</v>
       </c>
       <c r="F9">
-        <v>42.22486367837071</v>
+        <v>42.17571409929959</v>
       </c>
       <c r="G9">
-        <v>34.9737943386784</v>
+        <v>35.01667319825644</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>34.52605948121295</v>
       </c>
       <c r="I9">
-        <v>19.62108099146546</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>19.62080012832685</v>
       </c>
       <c r="K9">
-        <v>45.20934689668074</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>36.86383783295773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>45.20497365785371</v>
+      </c>
+      <c r="M9">
+        <v>36.86036548635815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.98066586689589</v>
+        <v>20.97916018372455</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.696004134453736</v>
+        <v>8.682470918471703</v>
       </c>
       <c r="E10">
-        <v>33.05052426504736</v>
+        <v>33.04194727070637</v>
       </c>
       <c r="F10">
-        <v>47.89193444794614</v>
+        <v>47.83463259175746</v>
       </c>
       <c r="G10">
-        <v>39.68383827905369</v>
+        <v>39.73108065672306</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>39.13058525237992</v>
       </c>
       <c r="I10">
-        <v>21.31070448157066</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>21.31000793555723</v>
       </c>
       <c r="K10">
-        <v>49.83631663831954</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>40.59301196172823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>49.83013540312096</v>
+      </c>
+      <c r="M10">
+        <v>40.58816995423439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.82991926284393</v>
+        <v>21.8281500831673</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.124303204623667</v>
+        <v>9.109795035826766</v>
       </c>
       <c r="E11">
-        <v>34.30144753950227</v>
+        <v>34.29206289863001</v>
       </c>
       <c r="F11">
-        <v>50.55738637300791</v>
+        <v>50.49592767146</v>
       </c>
       <c r="G11">
-        <v>41.88938042859569</v>
+        <v>41.93840153905666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>41.29534613770559</v>
       </c>
       <c r="I11">
-        <v>22.06789377446214</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>22.06695512606318</v>
       </c>
       <c r="K11">
-        <v>51.90341159727529</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>42.25627205352819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>51.89622621450107</v>
+      </c>
+      <c r="M11">
+        <v>42.25067322488431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.14893891835509</v>
+        <v>22.14706000243852</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.288635988784492</v>
+        <v>9.273741249966987</v>
       </c>
       <c r="E12">
-        <v>34.77280297115362</v>
+        <v>34.76309104340273</v>
       </c>
       <c r="F12">
-        <v>51.58522048734439</v>
+        <v>51.52209203466791</v>
       </c>
       <c r="G12">
-        <v>42.73854558921889</v>
+        <v>42.78819653988134</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>42.13000226610208</v>
       </c>
       <c r="I12">
-        <v>22.35371120788139</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>22.35266969844093</v>
       </c>
       <c r="K12">
-        <v>52.6833171173671</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>42.88328147164314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>52.67571405936137</v>
+      </c>
+      <c r="M12">
+        <v>42.87736841918829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08033220958566</v>
+        <v>22.07847743282559</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.253128643563777</v>
+        <v>9.238318059521598</v>
       </c>
       <c r="E13">
-        <v>34.6713664524404</v>
+        <v>34.66172611826036</v>
       </c>
       <c r="F13">
-        <v>51.36291826297716</v>
+        <v>51.30015433492351</v>
       </c>
       <c r="G13">
-        <v>42.55494356163759</v>
+        <v>42.60446112280965</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>41.94948511098896</v>
       </c>
       <c r="I13">
-        <v>22.29218137153948</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.29116258771954</v>
       </c>
       <c r="K13">
-        <v>52.5154279074187</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>42.74833220446703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>52.50791670709803</v>
+      </c>
+      <c r="M13">
+        <v>42.74248823244471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.85621161748786</v>
+        <v>21.85443363130092</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.137772923123062</v>
+        <v>9.123233343934009</v>
       </c>
       <c r="E14">
-        <v>34.34026403107485</v>
+        <v>34.3308529475928</v>
       </c>
       <c r="F14">
-        <v>50.64153487457751</v>
+        <v>50.57994095031365</v>
       </c>
       <c r="G14">
-        <v>41.95892719550044</v>
+        <v>42.00800110916043</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>41.36368110598615</v>
       </c>
       <c r="I14">
-        <v>22.09142130925179</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>22.09047444897875</v>
       </c>
       <c r="K14">
-        <v>51.96761457608157</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>42.30789996434751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>51.96039566505502</v>
+      </c>
+      <c r="M14">
+        <v>42.30227590055623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.71862247893902</v>
+        <v>21.71689012108069</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.067429485755003</v>
+        <v>9.053053415333915</v>
       </c>
       <c r="E15">
-        <v>34.13719582717077</v>
+        <v>34.12792210138367</v>
       </c>
       <c r="F15">
-        <v>50.20228571768921</v>
+        <v>50.14139482432937</v>
       </c>
       <c r="G15">
-        <v>41.5958455831576</v>
+        <v>41.64464150299467</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>41.00697345359651</v>
       </c>
       <c r="I15">
-        <v>21.96835721003609</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.96745281474441</v>
       </c>
       <c r="K15">
-        <v>51.6317806792838</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>42.03782153588845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>51.62473550407412</v>
+      </c>
+      <c r="M15">
+        <v>42.03232825740123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92475862790993</v>
+        <v>20.92326896230394</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.668251508843513</v>
+        <v>8.6547799646975</v>
       </c>
       <c r="E16">
-        <v>32.96836464462391</v>
+        <v>32.95983789555484</v>
       </c>
       <c r="F16">
-        <v>47.71996005598199</v>
+        <v>47.66291848243613</v>
       </c>
       <c r="G16">
-        <v>39.54135082020274</v>
+        <v>39.58847176630081</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>38.99089920921377</v>
       </c>
       <c r="I16">
-        <v>21.26104698601522</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.26036492620132</v>
       </c>
       <c r="K16">
-        <v>49.70067008805713</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>40.48379943327844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>49.6945499665384</v>
+      </c>
+      <c r="M16">
+        <v>40.47900355965911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.43228490428482</v>
+        <v>20.43092994078436</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.426010401074976</v>
+        <v>8.413070043971745</v>
       </c>
       <c r="E17">
-        <v>32.24562183097521</v>
+        <v>32.23752380169811</v>
       </c>
       <c r="F17">
-        <v>46.22313075742584</v>
+        <v>46.16831765306858</v>
       </c>
       <c r="G17">
-        <v>38.30011050466747</v>
+        <v>38.34614322206382</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>37.77500189156371</v>
       </c>
       <c r="I17">
-        <v>20.82464996202875</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>20.82408864792471</v>
       </c>
       <c r="K17">
-        <v>48.50793044840623</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>39.52317150706333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>48.50232470989684</v>
+      </c>
+      <c r="M17">
+        <v>39.51876432303275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.14678740075835</v>
+        <v>20.14550556931907</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.28734647723817</v>
+        <v>8.274704711646311</v>
       </c>
       <c r="E18">
-        <v>31.82742891829985</v>
+        <v>31.81956875859488</v>
       </c>
       <c r="F18">
-        <v>45.36997625131527</v>
+        <v>45.31640517054895</v>
       </c>
       <c r="G18">
-        <v>37.59173034881114</v>
+        <v>37.63711887942523</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>37.08188356645806</v>
       </c>
       <c r="I18">
-        <v>20.57251396200285</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>20.57201738915267</v>
       </c>
       <c r="K18">
-        <v>47.81815635955547</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>38.96737943377264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>47.8128302733958</v>
+      </c>
+      <c r="M18">
+        <v>38.96318388772656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.04971829362075</v>
+        <v>20.0484605472615</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.240486114085503</v>
+        <v>8.227944400605315</v>
       </c>
       <c r="E19">
-        <v>31.68537502723533</v>
+        <v>31.67759408216038</v>
       </c>
       <c r="F19">
-        <v>45.08230118917268</v>
+        <v>45.02914455070119</v>
       </c>
       <c r="G19">
-        <v>37.35271364650227</v>
+        <v>37.3978812456084</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>36.84815520146177</v>
       </c>
       <c r="I19">
-        <v>20.48693241026254</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>20.48645703349127</v>
       </c>
       <c r="K19">
-        <v>47.58390168467188</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>38.7785870381415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>47.57866776817816</v>
+      </c>
+      <c r="M19">
+        <v>38.77446129987373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.48493651853154</v>
+        <v>20.48356768278873</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.451722093726827</v>
+        <v>8.438725944202075</v>
       </c>
       <c r="E20">
-        <v>32.3228086388991</v>
+        <v>32.31466591686298</v>
       </c>
       <c r="F20">
-        <v>46.38162900426038</v>
+        <v>46.32658297041993</v>
       </c>
       <c r="G20">
-        <v>38.43163794097418</v>
+        <v>38.47778847149447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>37.90376137472487</v>
       </c>
       <c r="I20">
-        <v>20.87121784861928</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>20.87064418912122</v>
       </c>
       <c r="K20">
-        <v>48.63527068211895</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>39.62575760367105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>48.62961193025397</v>
+      </c>
+      <c r="M20">
+        <v>39.62131032649083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.92210392818203</v>
+        <v>21.92030368760186</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.171587667762719</v>
+        <v>9.156969021701162</v>
       </c>
       <c r="E21">
-        <v>34.43756767659566</v>
+        <v>34.42808991336985</v>
       </c>
       <c r="F21">
-        <v>50.85286313342057</v>
+        <v>50.79092846919113</v>
       </c>
       <c r="G21">
-        <v>42.13356437615941</v>
+        <v>42.18276993902422</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>41.53529413670479</v>
       </c>
       <c r="I21">
-        <v>22.1504070360036</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>22.14943939035287</v>
       </c>
       <c r="K21">
-        <v>52.12857370417007</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>42.43732395372859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>52.12127007344623</v>
+      </c>
+      <c r="M21">
+        <v>42.43163613441221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.84690971800286</v>
+        <v>22.84476691912157</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.655323103587698</v>
+        <v>9.639537588670191</v>
       </c>
       <c r="E22">
-        <v>35.8070139047202</v>
+        <v>35.79653236097938</v>
       </c>
       <c r="F22">
-        <v>53.88732027673741</v>
+        <v>53.8202988646017</v>
       </c>
       <c r="G22">
-        <v>44.63815911707983</v>
+        <v>44.68909288901096</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>43.99927817142603</v>
       </c>
       <c r="I22">
-        <v>22.98166331110842</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>22.9803698949584</v>
       </c>
       <c r="K22">
-        <v>54.39684156160814</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>44.25973894692593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>54.38823491302328</v>
+      </c>
+      <c r="M22">
+        <v>44.25307198960837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.35433085088803</v>
+        <v>22.35237782246653</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.395496383909391</v>
+        <v>9.380346214644298</v>
       </c>
       <c r="E23">
-        <v>35.0767108702987</v>
+        <v>35.066780461098</v>
       </c>
       <c r="F23">
-        <v>52.25493596377476</v>
+        <v>52.19069761837666</v>
       </c>
       <c r="G23">
-        <v>43.29148800513337</v>
+        <v>43.34153102275488</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>42.6738221518367</v>
       </c>
       <c r="I23">
-        <v>22.538124452081</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>22.53701282917842</v>
       </c>
       <c r="K23">
-        <v>53.18649952388477</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>43.28765045682492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>53.17861450506909</v>
+      </c>
+      <c r="M23">
+        <v>43.28152544397062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.46114015316984</v>
+        <v>20.45977760229077</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.44009602816249</v>
+        <v>8.42712512314197</v>
       </c>
       <c r="E24">
-        <v>32.28792091814528</v>
+        <v>32.27979842801859</v>
       </c>
       <c r="F24">
-        <v>46.30994933508778</v>
+        <v>46.25500872849535</v>
       </c>
       <c r="G24">
-        <v>38.37215845728061</v>
+        <v>38.41825578133118</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>37.84553111995984</v>
       </c>
       <c r="I24">
-        <v>20.85016843784924</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>20.8496003740292</v>
       </c>
       <c r="K24">
-        <v>48.57771296618233</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>39.57938951301691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>48.57207823095002</v>
+      </c>
+      <c r="M24">
+        <v>39.57496039820898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.33186189053483</v>
+        <v>18.33097314584721</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.433313607492051</v>
+        <v>7.422435132536719</v>
       </c>
       <c r="E25">
-        <v>29.18237794910929</v>
+        <v>29.17588040398328</v>
       </c>
       <c r="F25">
-        <v>40.18579931929438</v>
+        <v>40.13940053350048</v>
       </c>
       <c r="G25">
-        <v>33.27008349054393</v>
+        <v>33.31123439287166</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>32.86834402351682</v>
       </c>
       <c r="I25">
-        <v>18.98510007515125</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>18.98494205492718</v>
       </c>
       <c r="K25">
-        <v>43.45844817157842</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>35.45092856607662</v>
+        <v>43.45463267373796</v>
+      </c>
+      <c r="M25">
+        <v>35.44788144400945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.66806441187655</v>
+        <v>22.24394920966457</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.677731389613268</v>
+        <v>9.168486892723946</v>
       </c>
       <c r="E2">
-        <v>26.77409646606155</v>
+        <v>14.46070105718403</v>
       </c>
       <c r="F2">
-        <v>35.7421719831567</v>
+        <v>41.09431737159343</v>
       </c>
       <c r="G2">
-        <v>29.60590837969119</v>
+        <v>2.055446521638828</v>
       </c>
       <c r="H2">
-        <v>29.28625607537676</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.55656905142656</v>
+        <v>8.456668529729894</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>39.49202575739698</v>
+        <v>15.26259041624876</v>
       </c>
       <c r="M2">
-        <v>32.24768055147397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.96778064503072</v>
+      </c>
+      <c r="O2">
+        <v>33.69116233457146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.47411102429856</v>
+        <v>20.96250099192403</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.161461657431485</v>
+        <v>8.567711399864072</v>
       </c>
       <c r="E3">
-        <v>25.06357467427963</v>
+        <v>13.67068860472584</v>
       </c>
       <c r="F3">
-        <v>32.78565602347656</v>
+        <v>39.27726908769546</v>
       </c>
       <c r="G3">
-        <v>27.09142828414048</v>
+        <v>2.07061579045515</v>
       </c>
       <c r="H3">
-        <v>26.87516885387469</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.54924853713627</v>
+        <v>8.18822241817019</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.6613621149471</v>
+        <v>14.26661850049327</v>
       </c>
       <c r="M3">
-        <v>29.96023771710594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.2522004210849</v>
+      </c>
+      <c r="O3">
+        <v>32.07339701423782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.70601973786227</v>
+        <v>20.15234126362116</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.83666789785804</v>
+        <v>8.185155590942179</v>
       </c>
       <c r="E4">
-        <v>23.97029956930472</v>
+        <v>13.16931423763208</v>
       </c>
       <c r="F4">
-        <v>30.97360233699958</v>
+        <v>38.18234096422795</v>
       </c>
       <c r="G4">
-        <v>25.53783476375336</v>
+        <v>2.080085026010605</v>
       </c>
       <c r="H4">
-        <v>25.39593574040265</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.91065254248341</v>
+        <v>8.020915271950736</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.84558172162311</v>
+        <v>13.67889785482069</v>
       </c>
       <c r="M4">
-        <v>28.49261006999289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.42913116939176</v>
+      </c>
+      <c r="O4">
+        <v>31.09066288130552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.3839638846033</v>
+        <v>19.81653769096198</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.702093170392438</v>
+        <v>8.025722702836465</v>
       </c>
       <c r="E5">
-        <v>23.51375787850854</v>
+        <v>12.96087010502147</v>
       </c>
       <c r="F5">
-        <v>30.32287930112675</v>
+        <v>37.74152012681435</v>
       </c>
       <c r="G5">
-        <v>24.90148727621669</v>
+        <v>2.083988393500113</v>
       </c>
       <c r="H5">
-        <v>24.8550015225457</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.64534304352843</v>
+        <v>7.952110896334126</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.08530804340793</v>
+        <v>13.4347770833331</v>
       </c>
       <c r="M5">
-        <v>27.87808435441104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.50188776833493</v>
+      </c>
+      <c r="O5">
+        <v>30.69303363430454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.3299332122014</v>
+        <v>19.76044396568134</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.679606410568531</v>
+        <v>7.999032861446421</v>
       </c>
       <c r="E6">
-        <v>23.43727946165515</v>
+        <v>12.92600854052892</v>
       </c>
       <c r="F6">
-        <v>30.21628903267559</v>
+        <v>37.66865267386641</v>
       </c>
       <c r="G6">
-        <v>24.7956088581007</v>
+        <v>2.084639388331635</v>
       </c>
       <c r="H6">
-        <v>24.76927471787297</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.60098272539084</v>
+        <v>7.940648361127625</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.95781646822909</v>
+        <v>13.39396569722533</v>
       </c>
       <c r="M6">
-        <v>27.77503345097369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.51401072281621</v>
+      </c>
+      <c r="O6">
+        <v>30.62718640244818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.70171334431608</v>
+        <v>20.14783506083634</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.834862268605208</v>
+        <v>8.183019862946072</v>
       </c>
       <c r="E7">
-        <v>23.96418732662427</v>
+        <v>13.16651982113292</v>
       </c>
       <c r="F7">
-        <v>30.96364513425252</v>
+        <v>38.17637388669777</v>
       </c>
       <c r="G7">
-        <v>25.52926673045802</v>
+        <v>2.080137480785321</v>
       </c>
       <c r="H7">
-        <v>25.38780366010077</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.90709501770392</v>
+        <v>8.019989878801541</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.83541167292451</v>
+        <v>13.6756241035483</v>
       </c>
       <c r="M7">
-        <v>28.48438970054899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.43010963596286</v>
+      </c>
+      <c r="O7">
+        <v>31.08528849458152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.26349187645667</v>
+        <v>21.80705360855301</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.5011723870015</v>
+        <v>8.964110800164521</v>
       </c>
       <c r="E8">
-        <v>26.19307829498326</v>
+        <v>14.19165782339851</v>
       </c>
       <c r="F8">
-        <v>34.721508721109</v>
+        <v>40.4635563047125</v>
       </c>
       <c r="G8">
-        <v>28.7403349802914</v>
+        <v>2.060648188175276</v>
       </c>
       <c r="H8">
-        <v>28.45417873130389</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.21337918986811</v>
+        <v>8.364618547586131</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38.53164507539048</v>
+        <v>14.89164074813215</v>
       </c>
       <c r="M8">
-        <v>31.4716959515702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.06542175212937</v>
+      </c>
+      <c r="O8">
+        <v>33.13123906313364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.06174831383088</v>
+        <v>24.87046807841738</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.76027388131025</v>
+        <v>10.39317496917975</v>
       </c>
       <c r="E9">
-        <v>30.23780286459357</v>
+        <v>16.07619753499217</v>
       </c>
       <c r="F9">
-        <v>42.17571409929959</v>
+        <v>45.11250836649391</v>
       </c>
       <c r="G9">
-        <v>35.01667319825644</v>
+        <v>2.023376010355495</v>
       </c>
       <c r="H9">
-        <v>34.52605948121295</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.62080012832685</v>
+        <v>9.021510336073007</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>45.20497365785371</v>
+        <v>17.45031182311158</v>
       </c>
       <c r="M9">
-        <v>36.86036548635815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.36449407201939</v>
+      </c>
+      <c r="O9">
+        <v>37.22531683426968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.97916018372455</v>
+        <v>27.05472146727078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.682470918471703</v>
+        <v>11.39103448052379</v>
       </c>
       <c r="E10">
-        <v>33.04194727070637</v>
+        <v>17.39264856653951</v>
       </c>
       <c r="F10">
-        <v>47.83463259175746</v>
+        <v>48.63831426353642</v>
       </c>
       <c r="G10">
-        <v>39.73108065672306</v>
+        <v>1.996103580578671</v>
       </c>
       <c r="H10">
-        <v>39.13058525237992</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.31000793555723</v>
+        <v>9.494844023279052</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.83013540312096</v>
+        <v>19.18999527886622</v>
       </c>
       <c r="M10">
-        <v>40.58816995423439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.85179890338785</v>
+      </c>
+      <c r="O10">
+        <v>40.29141616485347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.8281500831673</v>
+        <v>28.09187984407306</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.109795035826766</v>
+        <v>11.83679258975084</v>
       </c>
       <c r="E11">
-        <v>34.29206289863001</v>
+        <v>17.9797497426716</v>
       </c>
       <c r="F11">
-        <v>50.49592767146</v>
+        <v>50.27243539613814</v>
       </c>
       <c r="G11">
-        <v>41.93840153905666</v>
+        <v>1.98359278085637</v>
       </c>
       <c r="H11">
-        <v>41.29534613770559</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.06695512606318</v>
+        <v>9.709065028414679</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.89622621450107</v>
+        <v>19.95489874758814</v>
       </c>
       <c r="M11">
-        <v>42.25067322488431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.61733968601611</v>
+      </c>
+      <c r="O11">
+        <v>41.70428761107632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.14706000243852</v>
+        <v>28.48001227248592</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.273741249966987</v>
+        <v>12.00474554831769</v>
       </c>
       <c r="E12">
-        <v>34.76309104340273</v>
+        <v>18.20072222537171</v>
       </c>
       <c r="F12">
-        <v>51.52209203466791</v>
+        <v>50.89642370082454</v>
       </c>
       <c r="G12">
-        <v>42.78819653988134</v>
+        <v>1.978827098948262</v>
       </c>
       <c r="H12">
-        <v>42.13000226610208</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.35266969844093</v>
+        <v>9.790137329056352</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.67571405936137</v>
+        <v>20.24113311461628</v>
       </c>
       <c r="M12">
-        <v>42.87736841918829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.52820692632843</v>
+      </c>
+      <c r="O12">
+        <v>42.2426440750984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.07847743282559</v>
+        <v>28.3966194854593</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.238318059521598</v>
+        <v>11.96860548020027</v>
       </c>
       <c r="E13">
-        <v>34.66172611826036</v>
+        <v>18.1531854948804</v>
       </c>
       <c r="F13">
-        <v>51.30015433492351</v>
+        <v>50.7617895040492</v>
       </c>
       <c r="G13">
-        <v>42.60446112280965</v>
+        <v>1.979854960121839</v>
       </c>
       <c r="H13">
-        <v>41.94948511098896</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.29116258771954</v>
+        <v>9.772676998214285</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.50791670709803</v>
+        <v>20.17963244578982</v>
       </c>
       <c r="M13">
-        <v>42.74248823244471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.54742179296461</v>
+      </c>
+      <c r="O13">
+        <v>42.1265366030949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.85443363130092</v>
+        <v>28.12390182179963</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.123233343934009</v>
+        <v>11.85062499323653</v>
       </c>
       <c r="E14">
-        <v>34.3308529475928</v>
+        <v>17.9979540658701</v>
       </c>
       <c r="F14">
-        <v>50.57994095031365</v>
+        <v>50.32366153057867</v>
       </c>
       <c r="G14">
-        <v>42.00800110916043</v>
+        <v>1.983201352836034</v>
       </c>
       <c r="H14">
-        <v>41.36368110598615</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.09047444897875</v>
+        <v>9.71573511682517</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.96039566505502</v>
+        <v>19.97851343032128</v>
       </c>
       <c r="M14">
-        <v>42.30227590055623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.61001474446008</v>
+      </c>
+      <c r="O14">
+        <v>41.74850657770794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.71689012108069</v>
+        <v>27.95626562849163</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.053053415333915</v>
+        <v>11.77825935514574</v>
       </c>
       <c r="E15">
-        <v>34.12792210138367</v>
+        <v>17.90270615786933</v>
       </c>
       <c r="F15">
-        <v>50.14139482432937</v>
+        <v>50.05600046541826</v>
       </c>
       <c r="G15">
-        <v>41.64464150299467</v>
+        <v>1.98524702220672</v>
       </c>
       <c r="H15">
-        <v>41.00697345359651</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.96745281474441</v>
+        <v>9.680854088674803</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.62473550407412</v>
+        <v>19.85488990663341</v>
       </c>
       <c r="M15">
-        <v>42.03232825740123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.64830381120468</v>
+      </c>
+      <c r="O15">
+        <v>41.51741257062513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92326896230394</v>
+        <v>26.98627251234565</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.6547799646975</v>
+        <v>11.36176526155933</v>
       </c>
       <c r="E16">
-        <v>32.95983789555484</v>
+        <v>17.35407068538289</v>
       </c>
       <c r="F16">
-        <v>47.66291848243613</v>
+        <v>48.53219334466165</v>
       </c>
       <c r="G16">
-        <v>39.58847176630081</v>
+        <v>1.996918025086199</v>
       </c>
       <c r="H16">
-        <v>38.99089920921377</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.26036492620132</v>
+        <v>9.480830653171283</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.6945499665384</v>
+        <v>19.13950591017381</v>
       </c>
       <c r="M16">
-        <v>40.47900355965911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.86708261734256</v>
+      </c>
+      <c r="O16">
+        <v>40.19950227778838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.43092994078436</v>
+        <v>26.39301070707425</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.413070043971745</v>
+        <v>11.10437947468538</v>
       </c>
       <c r="E17">
-        <v>32.23752380169811</v>
+        <v>17.01470485534172</v>
       </c>
       <c r="F17">
-        <v>46.16831765306858</v>
+        <v>47.60562886394485</v>
       </c>
       <c r="G17">
-        <v>38.34614322206382</v>
+        <v>2.004042486386726</v>
       </c>
       <c r="H17">
-        <v>37.77500189156371</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.82408864792471</v>
+        <v>9.357908699971503</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>48.50232470989684</v>
+        <v>18.69411421507204</v>
       </c>
       <c r="M17">
-        <v>39.51876432303275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.00086804879032</v>
+      </c>
+      <c r="O17">
+        <v>39.396079727785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.14550556931907</v>
+        <v>26.07497173692813</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.274704711646311</v>
+        <v>10.95554529214365</v>
       </c>
       <c r="E18">
-        <v>31.81956875859488</v>
+        <v>16.81837869391913</v>
       </c>
       <c r="F18">
-        <v>45.31640517054895</v>
+        <v>47.07547079301321</v>
       </c>
       <c r="G18">
-        <v>37.63711887942523</v>
+        <v>2.00813137046319</v>
       </c>
       <c r="H18">
-        <v>37.08188356645806</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.57201738915267</v>
+        <v>9.287095267523767</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.8128302733958</v>
+        <v>18.43541660134846</v>
       </c>
       <c r="M18">
-        <v>38.96318388772656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.07771373749128</v>
+      </c>
+      <c r="O18">
+        <v>38.93561655844534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.0484605472615</v>
+        <v>25.96689590522965</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.227944400605315</v>
+        <v>10.90500751551879</v>
       </c>
       <c r="E19">
-        <v>31.67759408216038</v>
+        <v>16.75170261443639</v>
       </c>
       <c r="F19">
-        <v>45.02914455070119</v>
+        <v>46.89642468448948</v>
       </c>
       <c r="G19">
-        <v>37.3978812456084</v>
+        <v>2.009514624960606</v>
       </c>
       <c r="H19">
-        <v>36.84815520146177</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.48645703349127</v>
+        <v>9.263097009953142</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.57866776817816</v>
+        <v>18.34738238383365</v>
       </c>
       <c r="M19">
-        <v>38.77446129987373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.10371922898433</v>
+      </c>
+      <c r="O19">
+        <v>38.77997592924221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.48356768278873</v>
+        <v>26.45168706606198</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.438725944202075</v>
+        <v>11.13185850438085</v>
       </c>
       <c r="E20">
-        <v>32.31466591686298</v>
+        <v>17.05094588043167</v>
       </c>
       <c r="F20">
-        <v>46.32658297041993</v>
+        <v>47.70397068288641</v>
       </c>
       <c r="G20">
-        <v>38.47778847149447</v>
+        <v>2.003285085380669</v>
       </c>
       <c r="H20">
-        <v>37.90376137472487</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.87064418912122</v>
+        <v>9.371004851245059</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.62961193025397</v>
+        <v>18.74178512666222</v>
       </c>
       <c r="M20">
-        <v>39.62131032649083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.9866382876641</v>
+      </c>
+      <c r="O20">
+        <v>39.48143078693743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.92030368760186</v>
+        <v>28.20412751530707</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.156969021701162</v>
+        <v>11.88529870045103</v>
       </c>
       <c r="E21">
-        <v>34.42808991336985</v>
+        <v>18.0435827759481</v>
       </c>
       <c r="F21">
-        <v>50.79092846919113</v>
+        <v>50.45220148090591</v>
       </c>
       <c r="G21">
-        <v>42.18276993902422</v>
+        <v>1.982219316158454</v>
       </c>
       <c r="H21">
-        <v>41.53529413670479</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.14943939035287</v>
+        <v>9.732460599230887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>52.12127007344623</v>
+        <v>20.0376762548332</v>
       </c>
       <c r="M21">
-        <v>42.43163613441221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.59164063846053</v>
+      </c>
+      <c r="O21">
+        <v>41.85944554078867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.84476691912157</v>
+        <v>29.32572926334205</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.639537588670191</v>
+        <v>12.37299252018386</v>
       </c>
       <c r="E22">
-        <v>35.79653236097938</v>
+        <v>18.68468622460165</v>
       </c>
       <c r="F22">
-        <v>53.8202988646017</v>
+        <v>52.27915883334266</v>
       </c>
       <c r="G22">
-        <v>44.68909288901096</v>
+        <v>1.968279712659151</v>
       </c>
       <c r="H22">
-        <v>43.99927817142603</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.9803698949584</v>
+        <v>9.968487221185999</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.38823491302328</v>
+        <v>20.86492977963909</v>
       </c>
       <c r="M22">
-        <v>44.25307198960837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.33135506657353</v>
+      </c>
+      <c r="O22">
+        <v>43.54850386527549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.35237782246653</v>
+        <v>28.72940306374991</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.380346214644298</v>
+        <v>12.11300488009014</v>
       </c>
       <c r="E23">
-        <v>35.066780461098</v>
+        <v>18.34307949342856</v>
       </c>
       <c r="F23">
-        <v>52.19069761837666</v>
+        <v>51.30089560070029</v>
       </c>
       <c r="G23">
-        <v>43.34153102275488</v>
+        <v>1.975740293343492</v>
       </c>
       <c r="H23">
-        <v>42.6738221518367</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.53701282917842</v>
+        <v>9.842488523006564</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>53.17861450506909</v>
+        <v>20.42506166258051</v>
       </c>
       <c r="M23">
-        <v>43.28152544397062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.47053417013531</v>
+      </c>
+      <c r="O23">
+        <v>42.60509759324659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.45977760229077</v>
+        <v>26.42516697406029</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.42712512314197</v>
+        <v>11.11943793633495</v>
       </c>
       <c r="E24">
-        <v>32.27979842801859</v>
+        <v>17.03456513791039</v>
       </c>
       <c r="F24">
-        <v>46.25500872849535</v>
+        <v>47.6595025058494</v>
       </c>
       <c r="G24">
-        <v>38.41825578133118</v>
+        <v>2.003627527431455</v>
       </c>
       <c r="H24">
-        <v>37.84553111995984</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.8496003740292</v>
+        <v>9.365084537345918</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.57207823095002</v>
+        <v>18.72024134645529</v>
       </c>
       <c r="M24">
-        <v>39.57496039820898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.99307176625125</v>
+      </c>
+      <c r="O24">
+        <v>39.4428391544311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.33097314584721</v>
+        <v>24.06248753429999</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.422435132536719</v>
+        <v>10.01661548599402</v>
       </c>
       <c r="E25">
-        <v>29.17588040398328</v>
+        <v>15.57915055325673</v>
       </c>
       <c r="F25">
-        <v>40.13940053350048</v>
+        <v>43.83686036909719</v>
       </c>
       <c r="G25">
-        <v>33.31123439287166</v>
+        <v>2.033401595310065</v>
       </c>
       <c r="H25">
-        <v>32.86834402351682</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.98494205492718</v>
+        <v>8.845663057228691</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>43.45463267373796</v>
+        <v>16.78391333848348</v>
       </c>
       <c r="M25">
-        <v>35.44788144400945</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.55319871877017</v>
+      </c>
+      <c r="O25">
+        <v>36.10871745378213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.24394920966457</v>
+        <v>24.05511011633232</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.168486892723946</v>
+        <v>6.327243391784815</v>
       </c>
       <c r="E2">
-        <v>14.46070105718403</v>
+        <v>12.63170313828672</v>
       </c>
       <c r="F2">
-        <v>41.09431737159343</v>
+        <v>15.90782349195623</v>
       </c>
       <c r="G2">
-        <v>2.055446521638828</v>
+        <v>20.43285803353883</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.59256827716427</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.51549330513752</v>
       </c>
       <c r="J2">
-        <v>8.456668529729894</v>
+        <v>8.683229579704998</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.26259041624876</v>
+        <v>15.07917770715725</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.96778064503072</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>33.69116233457146</v>
+        <v>12.48317593422424</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.96250099192403</v>
+        <v>22.50490966708623</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.567711399864072</v>
+        <v>6.418696490558556</v>
       </c>
       <c r="E3">
-        <v>13.67068860472584</v>
+        <v>12.44431853296456</v>
       </c>
       <c r="F3">
-        <v>39.27726908769546</v>
+        <v>15.84997583417192</v>
       </c>
       <c r="G3">
-        <v>2.07061579045515</v>
+        <v>19.55315748016761</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.591001477138935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.6447633509081</v>
       </c>
       <c r="J3">
-        <v>8.18822241817019</v>
+        <v>8.541300100905312</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.26661850049327</v>
+        <v>14.11830903831663</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.2522004210849</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>32.07339701423782</v>
+        <v>12.28780601429494</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.15234126362116</v>
+        <v>21.49798496302594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.185155590942179</v>
+        <v>6.477860914643764</v>
       </c>
       <c r="E4">
-        <v>13.16931423763208</v>
+        <v>12.3325477743086</v>
       </c>
       <c r="F4">
-        <v>38.18234096422795</v>
+        <v>15.84145510026047</v>
       </c>
       <c r="G4">
-        <v>2.080085026010605</v>
+        <v>19.02688553011554</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.597663617722191</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.74380268265512</v>
       </c>
       <c r="J4">
-        <v>8.020915271950736</v>
+        <v>8.455293218436571</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.67889785482069</v>
+        <v>13.49391404106527</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.42913116939176</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>31.09066288130552</v>
+        <v>12.18315889649158</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.81653769096198</v>
+        <v>21.07380033883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.025722702836465</v>
+        <v>6.502726052233301</v>
       </c>
       <c r="E5">
-        <v>12.96087010502147</v>
+        <v>12.28787733723975</v>
       </c>
       <c r="F5">
-        <v>37.74152012681435</v>
+        <v>15.84446868673039</v>
       </c>
       <c r="G5">
-        <v>2.083988393500113</v>
+        <v>18.8162743243178</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.602219247198089</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.78884977589203</v>
       </c>
       <c r="J5">
-        <v>7.952110896334126</v>
+        <v>8.42056928062461</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.4347770833331</v>
+        <v>13.23082021553472</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.50188776833493</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>30.69303363430454</v>
+        <v>12.14429305526579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.76044396568134</v>
+        <v>21.00252839696526</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.999032861446421</v>
+        <v>6.506900442160322</v>
       </c>
       <c r="E6">
-        <v>12.92600854052892</v>
+        <v>12.28051429377452</v>
       </c>
       <c r="F6">
-        <v>37.66865267386641</v>
+        <v>15.84535160100292</v>
       </c>
       <c r="G6">
-        <v>2.084639388331635</v>
+        <v>18.78154569535946</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.603084629902717</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.79660557735749</v>
       </c>
       <c r="J6">
-        <v>7.940648361127625</v>
+        <v>8.414824123601411</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.39396569722533</v>
+        <v>13.18661183424498</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.51401072281621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>30.62718640244818</v>
+        <v>12.13806521021856</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.14783506083634</v>
+        <v>21.49232034433577</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.183019862946072</v>
+        <v>6.47819319958127</v>
       </c>
       <c r="E7">
-        <v>13.16651982113292</v>
+        <v>12.33194171505176</v>
       </c>
       <c r="F7">
-        <v>38.17637388669777</v>
+        <v>15.84146989574587</v>
       </c>
       <c r="G7">
-        <v>2.080137480785321</v>
+        <v>19.02402908471018</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.5977177050757</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.74439155696605</v>
       </c>
       <c r="J7">
-        <v>8.019989878801541</v>
+        <v>8.454823554330362</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.6756241035483</v>
+        <v>13.49040086219469</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.43010963596286</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>31.08528849458152</v>
+        <v>12.18261954537601</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.80705360855301</v>
+        <v>23.53202981173557</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.964110800164521</v>
+        <v>6.358149868763673</v>
       </c>
       <c r="E8">
-        <v>14.19165782339851</v>
+        <v>12.56644229044862</v>
       </c>
       <c r="F8">
-        <v>40.4635563047125</v>
+        <v>15.88209836610238</v>
       </c>
       <c r="G8">
-        <v>2.060648188175276</v>
+        <v>20.12687195941489</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.590400058403443</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.55582617251813</v>
       </c>
       <c r="J8">
-        <v>8.364618547586131</v>
+        <v>8.634078896396764</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.89164074813215</v>
+        <v>14.75501383524836</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.06542175212937</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>33.13123906313364</v>
+        <v>12.41259713453551</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.87046807841738</v>
+        <v>27.09571129604925</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.39317496917975</v>
+        <v>6.146761330031956</v>
       </c>
       <c r="E9">
-        <v>16.07619753499217</v>
+        <v>13.05008058102328</v>
       </c>
       <c r="F9">
-        <v>45.11250836649391</v>
+        <v>16.18829078636803</v>
       </c>
       <c r="G9">
-        <v>2.023376010355495</v>
+        <v>22.38466120622087</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.639883695605743</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.35400233761912</v>
       </c>
       <c r="J9">
-        <v>9.021510336073007</v>
+        <v>8.992976735055338</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.45031182311158</v>
+        <v>16.96213985154684</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.36449407201939</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>37.22531683426968</v>
+        <v>12.98737292614301</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.05472146727078</v>
+        <v>29.45045240949112</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.39103448052379</v>
+        <v>6.006292457382964</v>
       </c>
       <c r="E10">
-        <v>17.39264856653951</v>
+        <v>13.41688026738929</v>
       </c>
       <c r="F10">
-        <v>48.63831426353642</v>
+        <v>16.56602160479326</v>
       </c>
       <c r="G10">
-        <v>1.996103580578671</v>
+        <v>24.08369602261653</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.719571395880963</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.32477150461441</v>
       </c>
       <c r="J10">
-        <v>9.494844023279052</v>
+        <v>9.25901472455997</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.18999527886622</v>
+        <v>18.41854941309899</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.85179890338785</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>40.29141616485347</v>
+        <v>13.4871586386648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.09187984407306</v>
+        <v>30.46521746289703</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.83679258975084</v>
+        <v>5.945667361509163</v>
       </c>
       <c r="E11">
-        <v>17.9797497426716</v>
+        <v>13.58561410984648</v>
       </c>
       <c r="F11">
-        <v>50.27243539613814</v>
+        <v>16.77350321046815</v>
       </c>
       <c r="G11">
-        <v>1.98359278085637</v>
+        <v>24.86239476803378</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.766125639345988</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.34094306350582</v>
       </c>
       <c r="J11">
-        <v>9.709065028414679</v>
+        <v>9.380127971549191</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.95489874758814</v>
+        <v>19.04563321415994</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.61733968601611</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>41.70428761107632</v>
+        <v>13.73151096861445</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.48001227248592</v>
+        <v>30.84144015659044</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.00474554831769</v>
+        <v>5.923187008871609</v>
       </c>
       <c r="E12">
-        <v>18.20072222537171</v>
+        <v>13.64972890288437</v>
       </c>
       <c r="F12">
-        <v>50.89642370082454</v>
+        <v>16.85735262698632</v>
       </c>
       <c r="G12">
-        <v>1.978827098948262</v>
+        <v>25.15791227972394</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.785305183804605</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.35159920790336</v>
       </c>
       <c r="J12">
-        <v>9.790137329056352</v>
+        <v>9.425970322175582</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.24113311461628</v>
+        <v>19.27803447761014</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.52820692632843</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>42.2426440750984</v>
+        <v>13.82648341886954</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.3966194854593</v>
+        <v>30.7607706201308</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.96860548020027</v>
+        <v>5.928007230784684</v>
       </c>
       <c r="E13">
-        <v>18.1531854948804</v>
+        <v>13.63591167775563</v>
       </c>
       <c r="F13">
-        <v>50.7617895040492</v>
+        <v>16.83905719620741</v>
       </c>
       <c r="G13">
-        <v>1.979854960121839</v>
+        <v>25.09424135199673</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.781104508488819</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.34909801270357</v>
       </c>
       <c r="J13">
-        <v>9.772676998214285</v>
+        <v>9.416098781807493</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.17963244578982</v>
+        <v>19.22820722235599</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.54742179296461</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>42.1265366030949</v>
+        <v>13.80592091947384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.12390182179963</v>
+        <v>30.49633039523664</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.85062499323653</v>
+        <v>5.943808290200298</v>
       </c>
       <c r="E14">
-        <v>17.9979540658701</v>
+        <v>13.59088476589598</v>
       </c>
       <c r="F14">
-        <v>50.32366153057867</v>
+        <v>16.78029495602012</v>
       </c>
       <c r="G14">
-        <v>1.983201352836034</v>
+        <v>24.88669525956412</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.767672096200561</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.34172724952452</v>
       </c>
       <c r="J14">
-        <v>9.71573511682517</v>
+        <v>9.383900047697539</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.97851343032128</v>
+        <v>19.06485423370512</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.61001474446008</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>41.74850657770794</v>
+        <v>13.73927551392086</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.95626562849163</v>
+        <v>30.33330727942685</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.77825935514574</v>
+        <v>5.953549219044606</v>
       </c>
       <c r="E15">
-        <v>17.90270615786933</v>
+        <v>13.5633315336899</v>
       </c>
       <c r="F15">
-        <v>50.05600046541826</v>
+        <v>16.74499308738815</v>
       </c>
       <c r="G15">
-        <v>1.98524702220672</v>
+        <v>24.75964586124848</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.759648256896769</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.33781133430323</v>
       </c>
       <c r="J15">
-        <v>9.680854088674803</v>
+        <v>9.364173746026868</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.85488990663341</v>
+        <v>18.96413774160269</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.64830381120468</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>41.51741257062513</v>
+        <v>13.69877105413743</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.98627251234565</v>
+        <v>29.38300531971862</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.36176526155933</v>
+        <v>6.01032085337125</v>
       </c>
       <c r="E16">
-        <v>17.35407068538289</v>
+        <v>13.40588645727079</v>
       </c>
       <c r="F16">
-        <v>48.53219334466165</v>
+        <v>16.55319351382219</v>
       </c>
       <c r="G16">
-        <v>1.996918025086199</v>
+        <v>24.03290539207909</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.716742261136132</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.32433296190646</v>
       </c>
       <c r="J16">
-        <v>9.480830653171283</v>
+        <v>9.251098592603695</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.13950591017381</v>
+        <v>18.37685767283715</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.86708261734256</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>40.19950227778838</v>
+        <v>13.47153158975117</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.39301070707425</v>
+        <v>28.78562031503792</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.10437947468538</v>
+        <v>6.045991280724326</v>
       </c>
       <c r="E17">
-        <v>17.01470485534172</v>
+        <v>13.30974242890347</v>
       </c>
       <c r="F17">
-        <v>47.60562886394485</v>
+        <v>16.44478195609135</v>
       </c>
       <c r="G17">
-        <v>2.004042486386726</v>
+        <v>23.58840721484597</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.693109864936834</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.32382338026642</v>
       </c>
       <c r="J17">
-        <v>9.357908699971503</v>
+        <v>9.181729343358203</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.69411421507204</v>
+        <v>18.00752567994675</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.00086804879032</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>39.396079727785</v>
+        <v>13.33648124738294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.07497173692813</v>
+        <v>28.43670541749901</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.95554529214365</v>
+        <v>6.066815798413678</v>
       </c>
       <c r="E18">
-        <v>16.81837869391913</v>
+        <v>13.25462229343556</v>
       </c>
       <c r="F18">
-        <v>47.07547079301321</v>
+        <v>16.3857750007739</v>
       </c>
       <c r="G18">
-        <v>2.00813137046319</v>
+        <v>23.33329812077393</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.68048307714336</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.3262866029954</v>
       </c>
       <c r="J18">
-        <v>9.287095267523767</v>
+        <v>9.141840462702259</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.43541660134846</v>
+        <v>17.79175708574449</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.07771373749128</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>38.93561655844534</v>
+        <v>13.26040442809081</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96689590522965</v>
+        <v>28.317654109964</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.90500751551879</v>
+        <v>6.073919319980368</v>
       </c>
       <c r="E19">
-        <v>16.75170261443639</v>
+        <v>13.23599195014061</v>
       </c>
       <c r="F19">
-        <v>46.89642468448948</v>
+        <v>16.36636611560984</v>
       </c>
       <c r="G19">
-        <v>2.009514624960606</v>
+        <v>23.24702443100315</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.676371616127824</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.32758494327889</v>
       </c>
       <c r="J19">
-        <v>9.263097009953142</v>
+        <v>9.12833763518976</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.34738238383365</v>
+        <v>17.71812714940082</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.10371922898433</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>38.77997592924221</v>
+        <v>13.2349209936852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.45168706606198</v>
+        <v>28.84976257964286</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.13185850438085</v>
+        <v>6.042162201853899</v>
       </c>
       <c r="E20">
-        <v>17.05094588043167</v>
+        <v>13.31995893546972</v>
       </c>
       <c r="F20">
-        <v>47.70397068288641</v>
+        <v>16.45597476977301</v>
       </c>
       <c r="G20">
-        <v>2.003285085380669</v>
+        <v>23.63566895951591</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.695525094000179</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.32359020479333</v>
       </c>
       <c r="J20">
-        <v>9.371004851245059</v>
+        <v>9.189112985249018</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.74178512666222</v>
+        <v>18.04718699444218</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.9866382876641</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>39.48143078693743</v>
+        <v>13.35069193340647</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.20412751530707</v>
+        <v>30.57422072365385</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.88529870045103</v>
+        <v>5.939154135630799</v>
       </c>
       <c r="E21">
-        <v>18.0435827759481</v>
+        <v>13.60410471080867</v>
       </c>
       <c r="F21">
-        <v>50.45220148090591</v>
+        <v>16.7974104720352</v>
       </c>
       <c r="G21">
-        <v>1.982219316158454</v>
+        <v>24.94764048129358</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.771574910415261</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.34376689625825</v>
       </c>
       <c r="J21">
-        <v>9.732460599230887</v>
+        <v>9.393358413581858</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.0376762548332</v>
+        <v>19.11297203823033</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.59164063846053</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>41.85944554078867</v>
+        <v>13.75878467357323</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.32572926334205</v>
+        <v>31.66860201581812</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.37299252018386</v>
+        <v>5.874616548478283</v>
       </c>
       <c r="E22">
-        <v>18.68468622460165</v>
+        <v>13.79106491356749</v>
       </c>
       <c r="F22">
-        <v>52.27915883334266</v>
+        <v>17.05138640143407</v>
       </c>
       <c r="G22">
-        <v>1.968279712659151</v>
+        <v>25.80877078714763</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.830344708463683</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.38350309117142</v>
       </c>
       <c r="J22">
-        <v>9.968487221185999</v>
+        <v>9.526710447117402</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.86492977963909</v>
+        <v>19.78003983243</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.33135506657353</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>43.54850386527549</v>
+        <v>14.03972320171495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.72940306374991</v>
+        <v>31.08407716491262</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.11300488009014</v>
+        <v>5.908804464560809</v>
       </c>
       <c r="E23">
-        <v>18.34307949342856</v>
+        <v>13.69118203270975</v>
       </c>
       <c r="F23">
-        <v>51.30089560070029</v>
+        <v>16.91297148982822</v>
       </c>
       <c r="G23">
-        <v>1.975740293343492</v>
+        <v>25.34888411597642</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.79812667689322</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.35977020454061</v>
       </c>
       <c r="J23">
-        <v>9.842488523006564</v>
+        <v>9.45556079635872</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.42506166258051</v>
+        <v>19.42669823816538</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.47053417013531</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>42.60509759324659</v>
+        <v>13.88848158022755</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.42516697406029</v>
+        <v>28.82078090550148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.11943793633495</v>
+        <v>6.043892341124676</v>
       </c>
       <c r="E24">
-        <v>17.03456513791039</v>
+        <v>13.31533956822247</v>
       </c>
       <c r="F24">
-        <v>47.6595025058494</v>
+        <v>16.45090416881468</v>
       </c>
       <c r="G24">
-        <v>2.003627527431455</v>
+        <v>23.6143005427046</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.694430184654509</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.32368706094327</v>
       </c>
       <c r="J24">
-        <v>9.365084537345918</v>
+        <v>9.185774861760697</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.72024134645529</v>
+        <v>18.02926681512201</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.99307176625125</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>39.4428391544311</v>
+        <v>13.34426240615735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.06248753429999</v>
+        <v>26.17813400839751</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.01661548599402</v>
+        <v>6.201358345912653</v>
       </c>
       <c r="E25">
-        <v>15.57915055325673</v>
+        <v>12.91701245333846</v>
       </c>
       <c r="F25">
-        <v>43.83686036909719</v>
+        <v>16.07957463157572</v>
       </c>
       <c r="G25">
-        <v>2.033401595310065</v>
+        <v>21.7656521540754</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.619198396999487</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.38891663299821</v>
       </c>
       <c r="J25">
-        <v>8.845663057228691</v>
+        <v>8.895321321288151</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.78391333848348</v>
+        <v>16.39416963586404</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.55319871877017</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>36.10871745378213</v>
+        <v>12.818361544405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.05511011633232</v>
+        <v>18.70775606929134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.327243391784815</v>
+        <v>10.82657036259021</v>
       </c>
       <c r="E2">
-        <v>12.63170313828672</v>
+        <v>16.32468574740047</v>
       </c>
       <c r="F2">
-        <v>15.90782349195623</v>
+        <v>26.70272535668428</v>
       </c>
       <c r="G2">
-        <v>20.43285803353883</v>
+        <v>24.63915112551384</v>
       </c>
       <c r="H2">
-        <v>7.59256827716427</v>
+        <v>13.16128777008751</v>
       </c>
       <c r="I2">
-        <v>15.51549330513752</v>
+        <v>23.50926219041557</v>
       </c>
       <c r="J2">
-        <v>8.683229579704998</v>
+        <v>11.28474219165262</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.07917770715725</v>
+        <v>12.26724367131262</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.48317593422424</v>
+        <v>19.49656810137638</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50490966708623</v>
+        <v>18.06538492518789</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.418696490558556</v>
+        <v>10.87170441272268</v>
       </c>
       <c r="E3">
-        <v>12.44431853296456</v>
+        <v>16.31585396372092</v>
       </c>
       <c r="F3">
-        <v>15.84997583417192</v>
+        <v>26.85249988212857</v>
       </c>
       <c r="G3">
-        <v>19.55315748016761</v>
+        <v>24.63960521028037</v>
       </c>
       <c r="H3">
-        <v>7.591001477138935</v>
+        <v>13.21168097263219</v>
       </c>
       <c r="I3">
-        <v>15.6447633509081</v>
+        <v>23.64052696443126</v>
       </c>
       <c r="J3">
-        <v>8.541300100905312</v>
+        <v>11.26940785471164</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.11830903831663</v>
+        <v>11.88898716869377</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.28780601429494</v>
+        <v>19.56541487738021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49798496302594</v>
+        <v>17.65811965355348</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.477860914643764</v>
+        <v>10.90111379709423</v>
       </c>
       <c r="E4">
-        <v>12.3325477743086</v>
+        <v>16.31316344445973</v>
       </c>
       <c r="F4">
-        <v>15.84145510026047</v>
+        <v>26.9530544213713</v>
       </c>
       <c r="G4">
-        <v>19.02688553011554</v>
+        <v>24.65149887786935</v>
       </c>
       <c r="H4">
-        <v>7.597663617722191</v>
+        <v>13.24541814736251</v>
       </c>
       <c r="I4">
-        <v>15.74380268265512</v>
+        <v>23.7281604774499</v>
       </c>
       <c r="J4">
-        <v>8.455293218436571</v>
+        <v>11.26138734416448</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.49391404106527</v>
+        <v>11.64972163025492</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.18315889649158</v>
+        <v>19.61350250402279</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.07380033883</v>
+        <v>17.4891259129981</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.502726052233301</v>
+        <v>10.91352611259641</v>
       </c>
       <c r="E5">
-        <v>12.28787733723975</v>
+        <v>16.31275845268641</v>
       </c>
       <c r="F5">
-        <v>15.84446868673039</v>
+        <v>26.99618217779052</v>
       </c>
       <c r="G5">
-        <v>18.8162743243178</v>
+        <v>24.65925595097826</v>
       </c>
       <c r="H5">
-        <v>7.602219247198089</v>
+        <v>13.25986805021862</v>
       </c>
       <c r="I5">
-        <v>15.78884977589203</v>
+        <v>23.76563676673318</v>
       </c>
       <c r="J5">
-        <v>8.42056928062461</v>
+        <v>11.25847308199348</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.23082021553472</v>
+        <v>11.55057004766459</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.14429305526579</v>
+        <v>19.6345547296217</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.00252839696526</v>
+        <v>17.46088790044268</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.506900442160322</v>
+        <v>10.91561303443253</v>
       </c>
       <c r="E6">
-        <v>12.28051429377452</v>
+        <v>16.31273308608356</v>
       </c>
       <c r="F6">
-        <v>15.84535160100292</v>
+        <v>27.00347313842921</v>
       </c>
       <c r="G6">
-        <v>18.78154569535946</v>
+        <v>24.66071941176595</v>
       </c>
       <c r="H6">
-        <v>7.603084629902717</v>
+        <v>13.26230979196842</v>
       </c>
       <c r="I6">
-        <v>15.79660557735749</v>
+        <v>23.77196614399147</v>
       </c>
       <c r="J6">
-        <v>8.414824123601411</v>
+        <v>11.25801065826575</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.18661183424498</v>
+        <v>11.5340099678919</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.13806521021856</v>
+        <v>19.63813819479191</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49232034433577</v>
+        <v>17.65585253252852</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.47819319958127</v>
+        <v>10.90127946056294</v>
       </c>
       <c r="E7">
-        <v>12.33194171505176</v>
+        <v>16.31315517753044</v>
       </c>
       <c r="F7">
-        <v>15.84146989574587</v>
+        <v>26.95362736102987</v>
       </c>
       <c r="G7">
-        <v>19.02402908471018</v>
+        <v>24.65159172503731</v>
       </c>
       <c r="H7">
-        <v>7.5977177050757</v>
+        <v>13.24561018418082</v>
       </c>
       <c r="I7">
-        <v>15.74439155696605</v>
+        <v>23.72865875554927</v>
       </c>
       <c r="J7">
-        <v>8.454823554330362</v>
+        <v>11.26134660303117</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.49040086219469</v>
+        <v>11.6483909545483</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.18261954537601</v>
+        <v>19.61378053434332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53202981173557</v>
+        <v>18.4890469186827</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.358149868763673</v>
+        <v>10.84178102669226</v>
       </c>
       <c r="E8">
-        <v>12.56644229044862</v>
+        <v>16.32107618238133</v>
       </c>
       <c r="F8">
-        <v>15.88209836610238</v>
+        <v>26.75257848181421</v>
       </c>
       <c r="G8">
-        <v>20.12687195941489</v>
+        <v>24.63689188407213</v>
       </c>
       <c r="H8">
-        <v>7.590400058403443</v>
+        <v>13.17808239744336</v>
       </c>
       <c r="I8">
-        <v>15.55582617251813</v>
+        <v>23.55305919658823</v>
       </c>
       <c r="J8">
-        <v>8.634078896396764</v>
+        <v>11.27916750882884</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.75501383524836</v>
+        <v>12.13834252490647</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.41259713453551</v>
+        <v>19.519095834538</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09571129604925</v>
+        <v>20.01320908473959</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.146761330031956</v>
+        <v>10.73852128348972</v>
       </c>
       <c r="E9">
-        <v>13.05008058102328</v>
+        <v>16.35808499281442</v>
       </c>
       <c r="F9">
-        <v>16.18829078636803</v>
+        <v>26.4269270454892</v>
       </c>
       <c r="G9">
-        <v>22.38466120622087</v>
+        <v>24.70051392934641</v>
       </c>
       <c r="H9">
-        <v>7.639883695605743</v>
+        <v>13.06789626512253</v>
       </c>
       <c r="I9">
-        <v>15.35400233761912</v>
+        <v>23.26474061686395</v>
       </c>
       <c r="J9">
-        <v>8.992976735055338</v>
+        <v>11.3250261288226</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.96213985154684</v>
+        <v>13.03893908894975</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.98737292614301</v>
+        <v>19.37982649810452</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45045240949112</v>
+        <v>21.05701976514742</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.006292457382964</v>
+        <v>10.67076954090424</v>
       </c>
       <c r="E10">
-        <v>13.41688026738929</v>
+        <v>16.39807871914935</v>
       </c>
       <c r="F10">
-        <v>16.56602160479326</v>
+        <v>26.23007416933886</v>
       </c>
       <c r="G10">
-        <v>24.08369602261653</v>
+        <v>24.80375789692529</v>
       </c>
       <c r="H10">
-        <v>7.719571395880963</v>
+        <v>13.00057092771923</v>
       </c>
       <c r="I10">
-        <v>15.32477150461441</v>
+        <v>23.08734924054001</v>
       </c>
       <c r="J10">
-        <v>9.25901472455997</v>
+        <v>11.36515443178478</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.41854941309899</v>
+        <v>13.65851937273964</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.4871586386648</v>
+        <v>19.30613707003015</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46521746289703</v>
+        <v>21.51380596167153</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.945667361509163</v>
+        <v>10.64169533674341</v>
       </c>
       <c r="E11">
-        <v>13.58561410984648</v>
+        <v>16.41898550219924</v>
       </c>
       <c r="F11">
-        <v>16.77350321046815</v>
+        <v>26.14985052596311</v>
       </c>
       <c r="G11">
-        <v>24.86239476803378</v>
+        <v>24.86294463460301</v>
       </c>
       <c r="H11">
-        <v>7.766125639345988</v>
+        <v>12.97291737817377</v>
       </c>
       <c r="I11">
-        <v>15.34094306350582</v>
+        <v>23.01418732231462</v>
       </c>
       <c r="J11">
-        <v>9.380127971549191</v>
+        <v>11.38475825296101</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.04563321415994</v>
+        <v>13.93028977418169</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.73151096861445</v>
+        <v>19.27889634161303</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.84144015659044</v>
+        <v>21.68407379001475</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.923187008871609</v>
+        <v>10.63093577382412</v>
       </c>
       <c r="E12">
-        <v>13.64972890288437</v>
+        <v>16.42728634936991</v>
       </c>
       <c r="F12">
-        <v>16.85735262698632</v>
+        <v>26.12082292268147</v>
       </c>
       <c r="G12">
-        <v>25.15791227972394</v>
+        <v>24.88710410850243</v>
       </c>
       <c r="H12">
-        <v>7.785305183804605</v>
+        <v>12.9628744662788</v>
       </c>
       <c r="I12">
-        <v>15.35159920790336</v>
+        <v>22.98757134151546</v>
       </c>
       <c r="J12">
-        <v>9.425970322175582</v>
+        <v>11.39237131842514</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.27803447761014</v>
+        <v>14.0316845604312</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.82648341886954</v>
+        <v>19.26948890284211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.7607706201308</v>
+        <v>21.64752559947074</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.928007230784684</v>
+        <v>10.63324192476209</v>
       </c>
       <c r="E13">
-        <v>13.63591167775563</v>
+        <v>16.42548164236847</v>
       </c>
       <c r="F13">
-        <v>16.83905719620741</v>
+        <v>26.12701427211494</v>
       </c>
       <c r="G13">
-        <v>25.09424135199673</v>
+        <v>24.88182345587721</v>
       </c>
       <c r="H13">
-        <v>7.781104508488819</v>
+        <v>12.96501829085106</v>
       </c>
       <c r="I13">
-        <v>15.34909801270357</v>
+        <v>22.99325505582786</v>
       </c>
       <c r="J13">
-        <v>9.416098781807493</v>
+        <v>11.39072335252735</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.22820722235599</v>
+        <v>14.00991594634524</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.80592091947384</v>
+        <v>19.27147450573429</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.49633039523664</v>
+        <v>21.52786884448189</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.943808290200298</v>
+        <v>10.64080513174978</v>
       </c>
       <c r="E14">
-        <v>13.59088476589598</v>
+        <v>16.41966076093768</v>
       </c>
       <c r="F14">
-        <v>16.78029495602012</v>
+        <v>26.14743526595296</v>
       </c>
       <c r="G14">
-        <v>24.88669525956412</v>
+        <v>24.86489731595789</v>
       </c>
       <c r="H14">
-        <v>7.767672096200561</v>
+        <v>12.97208253855179</v>
       </c>
       <c r="I14">
-        <v>15.34172724952452</v>
+        <v>23.01197575627491</v>
       </c>
       <c r="J14">
-        <v>9.383900047697539</v>
+        <v>11.38538081235479</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.06485423370512</v>
+        <v>13.93866239152187</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.73927551392086</v>
+        <v>19.27810416147508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.33330727942685</v>
+        <v>21.45421999570624</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.953549219044606</v>
+        <v>10.64547037156794</v>
       </c>
       <c r="E15">
-        <v>13.5633315336899</v>
+        <v>16.41614510695641</v>
       </c>
       <c r="F15">
-        <v>16.74499308738815</v>
+        <v>26.16012000357787</v>
       </c>
       <c r="G15">
-        <v>24.75964586124848</v>
+        <v>24.85475666450632</v>
       </c>
       <c r="H15">
-        <v>7.759648256896769</v>
+        <v>12.97646548784768</v>
       </c>
       <c r="I15">
-        <v>15.33781133430323</v>
+        <v>23.02358468741903</v>
       </c>
       <c r="J15">
-        <v>9.364173746026868</v>
+        <v>11.38213289797382</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.96413774160269</v>
+        <v>13.89481782182287</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.69877105413743</v>
+        <v>19.28228340590319</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38300531971862</v>
+        <v>21.02679464055362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.01032085337125</v>
+        <v>10.67270467141645</v>
       </c>
       <c r="E16">
-        <v>13.40588645727079</v>
+        <v>16.39676648209834</v>
       </c>
       <c r="F16">
-        <v>16.55319351382219</v>
+        <v>26.23550551629593</v>
       </c>
       <c r="G16">
-        <v>24.03290539207909</v>
+        <v>24.80013499879965</v>
       </c>
       <c r="H16">
-        <v>7.716742261136132</v>
+        <v>13.00243809538209</v>
       </c>
       <c r="I16">
-        <v>15.32433296190646</v>
+        <v>23.09228261702975</v>
       </c>
       <c r="J16">
-        <v>9.251098592603695</v>
+        <v>11.36390004519433</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.37685767283715</v>
+        <v>13.6405495999095</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.47153158975117</v>
+        <v>19.30804412844203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78562031503792</v>
+        <v>20.7598761672053</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.045991280724326</v>
+        <v>10.68985866729164</v>
       </c>
       <c r="E17">
-        <v>13.30974242890347</v>
+        <v>16.38556891757504</v>
       </c>
       <c r="F17">
-        <v>16.44478195609135</v>
+        <v>26.28414801922627</v>
       </c>
       <c r="G17">
-        <v>23.58840721484597</v>
+        <v>24.76975006884538</v>
       </c>
       <c r="H17">
-        <v>7.693109864936834</v>
+        <v>13.01913390587056</v>
       </c>
       <c r="I17">
-        <v>15.32382338026642</v>
+        <v>23.13636014521146</v>
       </c>
       <c r="J17">
-        <v>9.181729343358203</v>
+        <v>11.35305720226837</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.00752567994675</v>
+        <v>13.48193073958367</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.33648124738294</v>
+        <v>19.32545978466487</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43670541749901</v>
+        <v>20.60465862850933</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.066815798413678</v>
+        <v>10.69988962623453</v>
       </c>
       <c r="E18">
-        <v>13.25462229343556</v>
+        <v>16.37938417055913</v>
       </c>
       <c r="F18">
-        <v>16.3857750007739</v>
+        <v>26.31300307262953</v>
       </c>
       <c r="G18">
-        <v>23.33329812077393</v>
+        <v>24.75342459578173</v>
       </c>
       <c r="H18">
-        <v>7.68048307714336</v>
+        <v>13.02901665576006</v>
       </c>
       <c r="I18">
-        <v>15.3262866029954</v>
+        <v>23.16242121283255</v>
       </c>
       <c r="J18">
-        <v>9.141840462702259</v>
+        <v>11.34694796223969</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.79175708574449</v>
+        <v>13.38975222446834</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.26040442809081</v>
+        <v>19.33606774112684</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.317654109964</v>
+        <v>20.55181749225098</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.073919319980368</v>
+        <v>10.70331420664438</v>
       </c>
       <c r="E19">
-        <v>13.23599195014061</v>
+        <v>16.37733424156881</v>
       </c>
       <c r="F19">
-        <v>16.36636611560984</v>
+        <v>26.32292323611027</v>
       </c>
       <c r="G19">
-        <v>23.24702443100315</v>
+        <v>24.7480950378889</v>
       </c>
       <c r="H19">
-        <v>7.676371616127824</v>
+        <v>13.03241079234173</v>
       </c>
       <c r="I19">
-        <v>15.32758494327889</v>
+        <v>23.17136662127282</v>
       </c>
       <c r="J19">
-        <v>9.12833763518976</v>
+        <v>11.3449014731155</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.71812714940082</v>
+        <v>13.35838207730798</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.2349209936852</v>
+        <v>19.33976075137587</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84976257964286</v>
+        <v>20.78846617878585</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.042162201853899</v>
+        <v>10.68801558354703</v>
       </c>
       <c r="E20">
-        <v>13.31995893546972</v>
+        <v>16.38673448813831</v>
       </c>
       <c r="F20">
-        <v>16.45597476977301</v>
+        <v>26.27887908242513</v>
       </c>
       <c r="G20">
-        <v>23.63566895951591</v>
+        <v>24.77286552252796</v>
       </c>
       <c r="H20">
-        <v>7.695525094000179</v>
+        <v>13.01732764412157</v>
       </c>
       <c r="I20">
-        <v>15.32359020479333</v>
+        <v>23.13159461560708</v>
       </c>
       <c r="J20">
-        <v>9.189112985249018</v>
+        <v>11.35419830089774</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.04718699444218</v>
+        <v>13.4989143339931</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.35069193340647</v>
+        <v>19.32354466264879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.57422072365385</v>
+        <v>21.56308922698408</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.939154135630799</v>
+        <v>10.63857685127335</v>
       </c>
       <c r="E21">
-        <v>13.60410471080867</v>
+        <v>16.42136012742528</v>
       </c>
       <c r="F21">
-        <v>16.7974104720352</v>
+        <v>26.1414003683343</v>
       </c>
       <c r="G21">
-        <v>24.94764048129358</v>
+        <v>24.86982163076693</v>
       </c>
       <c r="H21">
-        <v>7.771574910415261</v>
+        <v>12.96999594720324</v>
       </c>
       <c r="I21">
-        <v>15.34376689625825</v>
+        <v>23.00644743840155</v>
       </c>
       <c r="J21">
-        <v>9.393358413581858</v>
+        <v>11.38694493881814</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.11297203823033</v>
+        <v>13.95963301985288</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.75878467357323</v>
+        <v>19.27613219073824</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66860201581812</v>
+        <v>22.05352849658974</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.874616548478283</v>
+        <v>10.60772376055966</v>
       </c>
       <c r="E22">
-        <v>13.79106491356749</v>
+        <v>16.44622454577399</v>
       </c>
       <c r="F22">
-        <v>17.05138640143407</v>
+        <v>26.059431452426</v>
       </c>
       <c r="G22">
-        <v>25.80877078714763</v>
+        <v>24.94336179127986</v>
       </c>
       <c r="H22">
-        <v>7.830344708463683</v>
+        <v>12.94156243730262</v>
       </c>
       <c r="I22">
-        <v>15.38350309117142</v>
+        <v>22.9310056952551</v>
       </c>
       <c r="J22">
-        <v>9.526710447117402</v>
+        <v>11.40944926661946</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>19.78003983243</v>
+        <v>14.25186008363768</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.03972320171495</v>
+        <v>19.25044004254257</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.08407716491262</v>
+        <v>21.79325283714827</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.908804464560809</v>
+        <v>10.62405753267493</v>
       </c>
       <c r="E23">
-        <v>13.69118203270975</v>
+        <v>16.43275162489206</v>
       </c>
       <c r="F23">
-        <v>16.91297148982822</v>
+        <v>26.10245529109296</v>
       </c>
       <c r="G23">
-        <v>25.34888411597642</v>
+        <v>24.90318560663339</v>
       </c>
       <c r="H23">
-        <v>7.79812667689322</v>
+        <v>12.95650870060356</v>
       </c>
       <c r="I23">
-        <v>15.35977020454061</v>
+        <v>22.97068762935984</v>
       </c>
       <c r="J23">
-        <v>9.45556079635872</v>
+        <v>11.39733892534516</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.42669823816538</v>
+        <v>14.09672633248067</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.88848158022755</v>
+        <v>19.26366648253703</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82078090550148</v>
+        <v>20.7755461158609</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.043892341124676</v>
+        <v>10.68884831553191</v>
       </c>
       <c r="E24">
-        <v>13.31533956822247</v>
+        <v>16.38620674548791</v>
       </c>
       <c r="F24">
-        <v>16.45090416881468</v>
+        <v>26.28125839775</v>
       </c>
       <c r="G24">
-        <v>23.6143005427046</v>
+        <v>24.77145346408763</v>
       </c>
       <c r="H24">
-        <v>7.694430184654509</v>
+        <v>13.01814337017237</v>
       </c>
       <c r="I24">
-        <v>15.32368706094327</v>
+        <v>23.13374686821376</v>
       </c>
       <c r="J24">
-        <v>9.185774861760697</v>
+        <v>11.35368202218784</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.02926681512201</v>
+        <v>13.49123911812388</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.34426240615735</v>
+        <v>19.32440863483404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17813400839751</v>
+        <v>19.61363986954485</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.201358345912653</v>
+        <v>10.76502630264996</v>
       </c>
       <c r="E25">
-        <v>12.91701245333846</v>
+        <v>16.34580262907238</v>
       </c>
       <c r="F25">
-        <v>16.07957463157572</v>
+        <v>26.5076195340033</v>
       </c>
       <c r="G25">
-        <v>21.7656521540754</v>
+        <v>24.67337556756481</v>
       </c>
       <c r="H25">
-        <v>7.619198396999487</v>
+        <v>13.09531642488863</v>
       </c>
       <c r="I25">
-        <v>15.38891663299821</v>
+        <v>23.33671131030421</v>
       </c>
       <c r="J25">
-        <v>8.895321321288151</v>
+        <v>11.31147366449954</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.39416963586404</v>
+        <v>12.80234168955984</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.818361544405</v>
+        <v>19.41249773151413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.70775606929134</v>
+        <v>24.05511011633232</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.82657036259021</v>
+        <v>6.327243391784816</v>
       </c>
       <c r="E2">
-        <v>16.32468574740047</v>
+        <v>12.63170313828672</v>
       </c>
       <c r="F2">
-        <v>26.70272535668428</v>
+        <v>15.90782349195636</v>
       </c>
       <c r="G2">
-        <v>24.63915112551384</v>
+        <v>20.43285803353897</v>
       </c>
       <c r="H2">
-        <v>13.16128777008751</v>
+        <v>7.59256827716427</v>
       </c>
       <c r="I2">
-        <v>23.50926219041557</v>
+        <v>15.5154933051376</v>
       </c>
       <c r="J2">
-        <v>11.28474219165262</v>
+        <v>8.683229579705001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.26724367131262</v>
+        <v>15.07917770715723</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.49656810137638</v>
+        <v>12.48317593422433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.06538492518789</v>
+        <v>22.50490966708625</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.87170441272268</v>
+        <v>6.418696490558482</v>
       </c>
       <c r="E3">
-        <v>16.31585396372092</v>
+        <v>12.44431853296459</v>
       </c>
       <c r="F3">
-        <v>26.85249988212857</v>
+        <v>15.84997583417191</v>
       </c>
       <c r="G3">
-        <v>24.63960521028037</v>
+        <v>19.55315748016763</v>
       </c>
       <c r="H3">
-        <v>13.21168097263219</v>
+        <v>7.591001477138935</v>
       </c>
       <c r="I3">
-        <v>23.64052696443126</v>
+        <v>15.64476335090817</v>
       </c>
       <c r="J3">
-        <v>11.26940785471164</v>
+        <v>8.541300100905353</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.88898716869377</v>
+        <v>14.11830903831666</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.56541487738021</v>
+        <v>12.28780601429495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.65811965355348</v>
+        <v>21.49798496302592</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.90111379709423</v>
+        <v>6.477860914643699</v>
       </c>
       <c r="E4">
-        <v>16.31316344445973</v>
+        <v>12.33254777430849</v>
       </c>
       <c r="F4">
-        <v>26.9530544213713</v>
+        <v>15.84145510026034</v>
       </c>
       <c r="G4">
-        <v>24.65149887786935</v>
+        <v>19.02688553011552</v>
       </c>
       <c r="H4">
-        <v>13.24541814736251</v>
+        <v>7.597663617722191</v>
       </c>
       <c r="I4">
-        <v>23.7281604774499</v>
+        <v>15.74380268265499</v>
       </c>
       <c r="J4">
-        <v>11.26138734416448</v>
+        <v>8.455293218436513</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.64972163025492</v>
+        <v>13.49391404106526</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.61350250402279</v>
+        <v>12.18315889649155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.4891259129981</v>
+        <v>21.07380033883003</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.91352611259641</v>
+        <v>6.502726052233237</v>
       </c>
       <c r="E5">
-        <v>16.31275845268641</v>
+        <v>12.2878773372397</v>
       </c>
       <c r="F5">
-        <v>26.99618217779052</v>
+        <v>15.84446868673043</v>
       </c>
       <c r="G5">
-        <v>24.65925595097826</v>
+        <v>18.81627432431781</v>
       </c>
       <c r="H5">
-        <v>13.25986805021862</v>
+        <v>7.602219247198139</v>
       </c>
       <c r="I5">
-        <v>23.76563676673318</v>
+        <v>15.78884977589204</v>
       </c>
       <c r="J5">
-        <v>11.25847308199348</v>
+        <v>8.420569280624584</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.55057004766459</v>
+        <v>13.23082021553469</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.6345547296217</v>
+        <v>12.14429305526585</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.46088790044268</v>
+        <v>21.00252839696522</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.91561303443253</v>
+        <v>6.506900442160322</v>
       </c>
       <c r="E6">
-        <v>16.31273308608356</v>
+        <v>12.28051429377445</v>
       </c>
       <c r="F6">
-        <v>27.00347313842921</v>
+        <v>15.84535160100293</v>
       </c>
       <c r="G6">
-        <v>24.66071941176595</v>
+        <v>18.78154569535958</v>
       </c>
       <c r="H6">
-        <v>13.26230979196842</v>
+        <v>7.603084629902611</v>
       </c>
       <c r="I6">
-        <v>23.77196614399147</v>
+        <v>15.79660557735746</v>
       </c>
       <c r="J6">
-        <v>11.25801065826575</v>
+        <v>8.414824123601313</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.5340099678919</v>
+        <v>13.18661183424496</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.63813819479191</v>
+        <v>12.13806521021857</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.65585253252852</v>
+        <v>21.49232034433578</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.90127946056294</v>
+        <v>6.478193199581265</v>
       </c>
       <c r="E7">
-        <v>16.31315517753044</v>
+        <v>12.33194171505179</v>
       </c>
       <c r="F7">
-        <v>26.95362736102987</v>
+        <v>15.84146989574578</v>
       </c>
       <c r="G7">
-        <v>24.65159172503731</v>
+        <v>19.02402908471013</v>
       </c>
       <c r="H7">
-        <v>13.24561018418082</v>
+        <v>7.597717705075656</v>
       </c>
       <c r="I7">
-        <v>23.72865875554927</v>
+        <v>15.74439155696603</v>
       </c>
       <c r="J7">
-        <v>11.26134660303117</v>
+        <v>8.454823554330433</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.6483909545483</v>
+        <v>13.4904008621947</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.61378053434332</v>
+        <v>12.18261954537594</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.4890469186827</v>
+        <v>23.53202981173561</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.84178102669226</v>
+        <v>6.358149868763601</v>
       </c>
       <c r="E8">
-        <v>16.32107618238133</v>
+        <v>12.56644229044867</v>
       </c>
       <c r="F8">
-        <v>26.75257848181421</v>
+        <v>15.88209836610243</v>
       </c>
       <c r="G8">
-        <v>24.63689188407213</v>
+        <v>20.12687195941496</v>
       </c>
       <c r="H8">
-        <v>13.17808239744336</v>
+        <v>7.590400058403449</v>
       </c>
       <c r="I8">
-        <v>23.55305919658823</v>
+        <v>15.55582617251816</v>
       </c>
       <c r="J8">
-        <v>11.27916750882884</v>
+        <v>8.634078896396815</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.13834252490647</v>
+        <v>14.75501383524834</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.519095834538</v>
+        <v>12.41259713453556</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01320908473959</v>
+        <v>27.09571129604927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.73852128348972</v>
+        <v>6.146761330031825</v>
       </c>
       <c r="E9">
-        <v>16.35808499281442</v>
+        <v>13.05008058102326</v>
       </c>
       <c r="F9">
-        <v>26.4269270454892</v>
+        <v>16.18829078636801</v>
       </c>
       <c r="G9">
-        <v>24.70051392934641</v>
+        <v>22.38466120622085</v>
       </c>
       <c r="H9">
-        <v>13.06789626512253</v>
+        <v>7.639883695605764</v>
       </c>
       <c r="I9">
-        <v>23.26474061686395</v>
+        <v>15.35400233761916</v>
       </c>
       <c r="J9">
-        <v>11.3250261288226</v>
+        <v>8.9929767350554</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.03893908894975</v>
+        <v>16.96213985154685</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.37982649810452</v>
+        <v>12.98737292614303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.05701976514742</v>
+        <v>29.4504524094911</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.67076954090424</v>
+        <v>6.006292457382834</v>
       </c>
       <c r="E10">
-        <v>16.39807871914935</v>
+        <v>13.41688026738925</v>
       </c>
       <c r="F10">
-        <v>26.23007416933886</v>
+        <v>16.56602160479335</v>
       </c>
       <c r="G10">
-        <v>24.80375789692529</v>
+        <v>24.08369602261659</v>
       </c>
       <c r="H10">
-        <v>13.00057092771923</v>
+        <v>7.719571395880963</v>
       </c>
       <c r="I10">
-        <v>23.08734924054001</v>
+        <v>15.32477150461436</v>
       </c>
       <c r="J10">
-        <v>11.36515443178478</v>
+        <v>9.259014724560002</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.65851937273964</v>
+        <v>18.41854941309893</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.30613707003015</v>
+        <v>13.48715863866485</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.51380596167153</v>
+        <v>30.46521746289705</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.64169533674341</v>
+        <v>5.945667361509297</v>
       </c>
       <c r="E11">
-        <v>16.41898550219924</v>
+        <v>13.58561410984654</v>
       </c>
       <c r="F11">
-        <v>26.14985052596311</v>
+        <v>16.77350321046823</v>
       </c>
       <c r="G11">
-        <v>24.86294463460301</v>
+        <v>24.86239476803383</v>
       </c>
       <c r="H11">
-        <v>12.97291737817377</v>
+        <v>7.766125639346069</v>
       </c>
       <c r="I11">
-        <v>23.01418732231462</v>
+        <v>15.3409430635059</v>
       </c>
       <c r="J11">
-        <v>11.38475825296101</v>
+        <v>9.380127971549236</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.93028977418169</v>
+        <v>19.04563321415991</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.27889634161303</v>
+        <v>13.73151096861451</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.68407379001475</v>
+        <v>30.84144015659048</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.63093577382412</v>
+        <v>5.923187008871554</v>
       </c>
       <c r="E12">
-        <v>16.42728634936991</v>
+        <v>13.64972890288456</v>
       </c>
       <c r="F12">
-        <v>26.12082292268147</v>
+        <v>16.85735262698625</v>
       </c>
       <c r="G12">
-        <v>24.88710410850243</v>
+        <v>25.1579122797239</v>
       </c>
       <c r="H12">
-        <v>12.9628744662788</v>
+        <v>7.78530518380459</v>
       </c>
       <c r="I12">
-        <v>22.98757134151546</v>
+        <v>15.35159920790339</v>
       </c>
       <c r="J12">
-        <v>11.39237131842514</v>
+        <v>9.42597032217574</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.0316845604312</v>
+        <v>19.27803447761011</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.26948890284211</v>
+        <v>13.8264834188695</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.64752559947074</v>
+        <v>30.76077062013082</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.63324192476209</v>
+        <v>5.928007230784488</v>
       </c>
       <c r="E13">
-        <v>16.42548164236847</v>
+        <v>13.63591167775548</v>
       </c>
       <c r="F13">
-        <v>26.12701427211494</v>
+        <v>16.83905719620747</v>
       </c>
       <c r="G13">
-        <v>24.88182345587721</v>
+        <v>25.09424135199677</v>
       </c>
       <c r="H13">
-        <v>12.96501829085106</v>
+        <v>7.781104508488839</v>
       </c>
       <c r="I13">
-        <v>22.99325505582786</v>
+        <v>15.34909801270356</v>
       </c>
       <c r="J13">
-        <v>11.39072335252735</v>
+        <v>9.416098781807513</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.00991594634524</v>
+        <v>19.22820722235599</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.27147450573429</v>
+        <v>13.80592091947392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.52786884448189</v>
+        <v>30.49633039523659</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.64080513174978</v>
+        <v>5.943808290200377</v>
       </c>
       <c r="E14">
-        <v>16.41966076093768</v>
+        <v>13.59088476589601</v>
       </c>
       <c r="F14">
-        <v>26.14743526595296</v>
+        <v>16.78029495602009</v>
       </c>
       <c r="G14">
-        <v>24.86489731595789</v>
+        <v>24.88669525956412</v>
       </c>
       <c r="H14">
-        <v>12.97208253855179</v>
+        <v>7.76767209620057</v>
       </c>
       <c r="I14">
-        <v>23.01197575627491</v>
+        <v>15.34172724952445</v>
       </c>
       <c r="J14">
-        <v>11.38538081235479</v>
+        <v>9.383900047697525</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.93866239152187</v>
+        <v>19.06485423370508</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.27810416147508</v>
+        <v>13.73927551392083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.45421999570624</v>
+        <v>30.33330727942681</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.64547037156794</v>
+        <v>5.953549219044344</v>
       </c>
       <c r="E15">
-        <v>16.41614510695641</v>
+        <v>13.56333153368992</v>
       </c>
       <c r="F15">
-        <v>26.16012000357787</v>
+        <v>16.7449930873881</v>
       </c>
       <c r="G15">
-        <v>24.85475666450632</v>
+        <v>24.75964586124855</v>
       </c>
       <c r="H15">
-        <v>12.97646548784768</v>
+        <v>7.759648256896782</v>
       </c>
       <c r="I15">
-        <v>23.02358468741903</v>
+        <v>15.3378113343031</v>
       </c>
       <c r="J15">
-        <v>11.38213289797382</v>
+        <v>9.364173746026943</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.89481782182287</v>
+        <v>18.96413774160263</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.28228340590319</v>
+        <v>13.69877105413745</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.02679464055362</v>
+        <v>29.38300531971868</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.67270467141645</v>
+        <v>6.010320853371119</v>
       </c>
       <c r="E16">
-        <v>16.39676648209834</v>
+        <v>13.40588645727079</v>
       </c>
       <c r="F16">
-        <v>26.23550551629593</v>
+        <v>16.55319351382212</v>
       </c>
       <c r="G16">
-        <v>24.80013499879965</v>
+        <v>24.03290539207906</v>
       </c>
       <c r="H16">
-        <v>13.00243809538209</v>
+        <v>7.716742261136043</v>
       </c>
       <c r="I16">
-        <v>23.09228261702975</v>
+        <v>15.32433296190641</v>
       </c>
       <c r="J16">
-        <v>11.36390004519433</v>
+        <v>9.251098592603761</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.6405495999095</v>
+        <v>18.37685767283715</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.30804412844203</v>
+        <v>13.47153158975113</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.7598761672053</v>
+        <v>28.78562031503794</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.68985866729164</v>
+        <v>6.045991280724524</v>
       </c>
       <c r="E17">
-        <v>16.38556891757504</v>
+        <v>13.30974242890349</v>
       </c>
       <c r="F17">
-        <v>26.28414801922627</v>
+        <v>16.44478195609132</v>
       </c>
       <c r="G17">
-        <v>24.76975006884538</v>
+        <v>23.58840721484594</v>
       </c>
       <c r="H17">
-        <v>13.01913390587056</v>
+        <v>7.69310986493678</v>
       </c>
       <c r="I17">
-        <v>23.13636014521146</v>
+        <v>15.32382338026642</v>
       </c>
       <c r="J17">
-        <v>11.35305720226837</v>
+        <v>9.181729343358191</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.48193073958367</v>
+        <v>18.00752567994678</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.32545978466487</v>
+        <v>13.3364812473829</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.60465862850933</v>
+        <v>28.43670541749901</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.69988962623453</v>
+        <v>6.066815798413669</v>
       </c>
       <c r="E18">
-        <v>16.37938417055913</v>
+        <v>13.25462229343554</v>
       </c>
       <c r="F18">
-        <v>26.31300307262953</v>
+        <v>16.38577500077399</v>
       </c>
       <c r="G18">
-        <v>24.75342459578173</v>
+        <v>23.33329812077397</v>
       </c>
       <c r="H18">
-        <v>13.02901665576006</v>
+        <v>7.680483077143367</v>
       </c>
       <c r="I18">
-        <v>23.16242121283255</v>
+        <v>15.32628660299536</v>
       </c>
       <c r="J18">
-        <v>11.34694796223969</v>
+        <v>9.141840462702232</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.38975222446834</v>
+        <v>17.79175708574447</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.33606774112684</v>
+        <v>13.26040442809084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.55181749225098</v>
+        <v>28.31765410996401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.70331420664438</v>
+        <v>6.07391931998049</v>
       </c>
       <c r="E19">
-        <v>16.37733424156881</v>
+        <v>13.23599195014067</v>
       </c>
       <c r="F19">
-        <v>26.32292323611027</v>
+        <v>16.3663661156099</v>
       </c>
       <c r="G19">
-        <v>24.7480950378889</v>
+        <v>23.24702443100319</v>
       </c>
       <c r="H19">
-        <v>13.03241079234173</v>
+        <v>7.676371616127836</v>
       </c>
       <c r="I19">
-        <v>23.17136662127282</v>
+        <v>15.32758494327888</v>
       </c>
       <c r="J19">
-        <v>11.3449014731155</v>
+        <v>9.128337635189791</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.35838207730798</v>
+        <v>17.71812714940075</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.33976075137587</v>
+        <v>13.23492099368522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.78846617878585</v>
+        <v>28.8497625796429</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.68801558354703</v>
+        <v>6.04216220185396</v>
       </c>
       <c r="E20">
-        <v>16.38673448813831</v>
+        <v>13.31995893546968</v>
       </c>
       <c r="F20">
-        <v>26.27887908242513</v>
+        <v>16.45597476977305</v>
       </c>
       <c r="G20">
-        <v>24.77286552252796</v>
+        <v>23.63566895951586</v>
       </c>
       <c r="H20">
-        <v>13.01732764412157</v>
+        <v>7.695525094000173</v>
       </c>
       <c r="I20">
-        <v>23.13159461560708</v>
+        <v>15.32359020479334</v>
       </c>
       <c r="J20">
-        <v>11.35419830089774</v>
+        <v>9.189112985248975</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.4989143339931</v>
+        <v>18.04718699444214</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.32354466264879</v>
+        <v>13.35069193340649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.56308922698408</v>
+        <v>30.57422072365382</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.63857685127335</v>
+        <v>5.939154135630787</v>
       </c>
       <c r="E21">
-        <v>16.42136012742528</v>
+        <v>13.60410471080871</v>
       </c>
       <c r="F21">
-        <v>26.1414003683343</v>
+        <v>16.79741047203525</v>
       </c>
       <c r="G21">
-        <v>24.86982163076693</v>
+        <v>24.94764048129357</v>
       </c>
       <c r="H21">
-        <v>12.96999594720324</v>
+        <v>7.771574910415281</v>
       </c>
       <c r="I21">
-        <v>23.00644743840155</v>
+        <v>15.34376689625832</v>
       </c>
       <c r="J21">
-        <v>11.38694493881814</v>
+        <v>9.393358413581899</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.95963301985288</v>
+        <v>19.11297203823035</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.27613219073824</v>
+        <v>13.75878467357327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.05352849658974</v>
+        <v>31.66860201581814</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.60772376055966</v>
+        <v>5.874616548478271</v>
       </c>
       <c r="E22">
-        <v>16.44622454577399</v>
+        <v>13.7910649135675</v>
       </c>
       <c r="F22">
-        <v>26.059431452426</v>
+        <v>17.05138640143416</v>
       </c>
       <c r="G22">
-        <v>24.94336179127986</v>
+        <v>25.80877078714763</v>
       </c>
       <c r="H22">
-        <v>12.94156243730262</v>
+        <v>7.830344708463688</v>
       </c>
       <c r="I22">
-        <v>22.9310056952551</v>
+        <v>15.38350309117145</v>
       </c>
       <c r="J22">
-        <v>11.40944926661946</v>
+        <v>9.526710447117406</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.25186008363768</v>
+        <v>19.78003983242997</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.25044004254257</v>
+        <v>14.03972320171501</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.79325283714827</v>
+        <v>31.08407716491262</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.62405753267493</v>
+        <v>5.908804464560683</v>
       </c>
       <c r="E23">
-        <v>16.43275162489206</v>
+        <v>13.6911820327097</v>
       </c>
       <c r="F23">
-        <v>26.10245529109296</v>
+        <v>16.91297148982817</v>
       </c>
       <c r="G23">
-        <v>24.90318560663339</v>
+        <v>25.34888411597647</v>
       </c>
       <c r="H23">
-        <v>12.95650870060356</v>
+        <v>7.798126676893189</v>
       </c>
       <c r="I23">
-        <v>22.97068762935984</v>
+        <v>15.35977020454058</v>
       </c>
       <c r="J23">
-        <v>11.39733892534516</v>
+        <v>9.455560796358737</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.09672633248067</v>
+        <v>19.42669823816541</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.26366648253703</v>
+        <v>13.88848158022753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.7755461158609</v>
+        <v>28.82078090550149</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.68884831553191</v>
+        <v>6.04389234112474</v>
       </c>
       <c r="E24">
-        <v>16.38620674548791</v>
+        <v>13.31533956822249</v>
       </c>
       <c r="F24">
-        <v>26.28125839775</v>
+        <v>16.45090416881475</v>
       </c>
       <c r="G24">
-        <v>24.77145346408763</v>
+        <v>23.61430054270463</v>
       </c>
       <c r="H24">
-        <v>13.01814337017237</v>
+        <v>7.694430184654479</v>
       </c>
       <c r="I24">
-        <v>23.13374686821376</v>
+        <v>15.32368706094331</v>
       </c>
       <c r="J24">
-        <v>11.35368202218784</v>
+        <v>9.185774861760688</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.49123911812388</v>
+        <v>18.02926681512201</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.32440863483404</v>
+        <v>13.34426240615735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.61363986954485</v>
+        <v>26.17813400839745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.76502630264996</v>
+        <v>6.201358345912448</v>
       </c>
       <c r="E25">
-        <v>16.34580262907238</v>
+        <v>12.91701245333826</v>
       </c>
       <c r="F25">
-        <v>26.5076195340033</v>
+        <v>16.07957463157559</v>
       </c>
       <c r="G25">
-        <v>24.67337556756481</v>
+        <v>21.76565215407545</v>
       </c>
       <c r="H25">
-        <v>13.09531642488863</v>
+        <v>7.619198396999451</v>
       </c>
       <c r="I25">
-        <v>23.33671131030421</v>
+        <v>15.38891663299801</v>
       </c>
       <c r="J25">
-        <v>11.31147366449954</v>
+        <v>8.895321321288124</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.80234168955984</v>
+        <v>16.39416963586402</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.41249773151413</v>
+        <v>12.81836154440496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.05511011633232</v>
+        <v>17.26902272751402</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.327243391784816</v>
+        <v>6.883172719927369</v>
       </c>
       <c r="E2">
-        <v>12.63170313828672</v>
+        <v>11.70873503906963</v>
       </c>
       <c r="F2">
-        <v>15.90782349195636</v>
+        <v>20.2455205888784</v>
       </c>
       <c r="G2">
-        <v>20.43285803353897</v>
+        <v>25.31914695827406</v>
       </c>
       <c r="H2">
-        <v>7.59256827716427</v>
+        <v>1.757748848143298</v>
       </c>
       <c r="I2">
-        <v>15.5154933051376</v>
+        <v>3.688312823119174</v>
       </c>
       <c r="J2">
-        <v>8.683229579705001</v>
+        <v>8.644966309618681</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.55352845062464</v>
       </c>
       <c r="L2">
-        <v>15.07917770715723</v>
+        <v>8.094198668847893</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10.73037236334764</v>
       </c>
       <c r="O2">
-        <v>12.48317593422433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>14.24513733907306</v>
+      </c>
+      <c r="Q2">
+        <v>14.86966547331076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50490966708625</v>
+        <v>16.23345901328112</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.418696490558482</v>
+        <v>6.884236314204108</v>
       </c>
       <c r="E3">
-        <v>12.44431853296459</v>
+        <v>11.59396886724117</v>
       </c>
       <c r="F3">
-        <v>15.84997583417191</v>
+        <v>19.71218018261658</v>
       </c>
       <c r="G3">
-        <v>19.55315748016763</v>
+        <v>24.06644340421893</v>
       </c>
       <c r="H3">
-        <v>7.591001477138935</v>
+        <v>1.948330825752681</v>
       </c>
       <c r="I3">
-        <v>15.64476335090817</v>
+        <v>3.796215402741079</v>
       </c>
       <c r="J3">
-        <v>8.541300100905353</v>
+        <v>8.516705269936473</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.79506556675447</v>
       </c>
       <c r="L3">
-        <v>14.11830903831666</v>
+        <v>7.998582963208964</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>10.07460952406336</v>
       </c>
       <c r="O3">
-        <v>12.28780601429495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>14.12947256701442</v>
+      </c>
+      <c r="Q3">
+        <v>14.42913155263392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49798496302592</v>
+        <v>15.55899987873794</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.477860914643699</v>
+        <v>6.885399043693082</v>
       </c>
       <c r="E4">
-        <v>12.33254777430849</v>
+        <v>11.52257849784484</v>
       </c>
       <c r="F4">
-        <v>15.84145510026034</v>
+        <v>19.38671087550822</v>
       </c>
       <c r="G4">
-        <v>19.02688553011552</v>
+        <v>23.27656648546566</v>
       </c>
       <c r="H4">
-        <v>7.597663617722191</v>
+        <v>2.069606014198337</v>
       </c>
       <c r="I4">
-        <v>15.74380268265499</v>
+        <v>3.865434545837279</v>
       </c>
       <c r="J4">
-        <v>8.455293218436513</v>
+        <v>8.440727375962059</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.94695837699364</v>
       </c>
       <c r="L4">
-        <v>13.49391404106526</v>
+        <v>7.938856647755024</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.651335966858838</v>
       </c>
       <c r="O4">
-        <v>12.18315889649155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.06138325998551</v>
+      </c>
+      <c r="Q4">
+        <v>14.15917558722895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.07380033883003</v>
+        <v>15.26710233310698</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.502726052233237</v>
+        <v>6.885472400923113</v>
       </c>
       <c r="E5">
-        <v>12.2878773372397</v>
+        <v>11.49425236295357</v>
       </c>
       <c r="F5">
-        <v>15.84446868673043</v>
+        <v>19.24952096505985</v>
       </c>
       <c r="G5">
-        <v>18.81627432431781</v>
+        <v>22.94325468940507</v>
       </c>
       <c r="H5">
-        <v>7.602219247198139</v>
+        <v>2.120307167514505</v>
       </c>
       <c r="I5">
-        <v>15.78884977589204</v>
+        <v>3.896920579834927</v>
       </c>
       <c r="J5">
-        <v>8.420569280624584</v>
+        <v>8.409303569966269</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.00807950540314</v>
       </c>
       <c r="L5">
-        <v>13.23082021553469</v>
+        <v>7.915061149764586</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.479891689548166</v>
       </c>
       <c r="O5">
-        <v>12.14429305526585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.03704663651996</v>
+      </c>
+      <c r="Q5">
+        <v>14.04653140677088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.00252839696522</v>
+        <v>15.2089617213761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.506900442160322</v>
+        <v>6.884855775352174</v>
       </c>
       <c r="E6">
-        <v>12.28051429377445</v>
+        <v>11.49077586620316</v>
       </c>
       <c r="F6">
-        <v>15.84535160100293</v>
+        <v>19.22038334589451</v>
       </c>
       <c r="G6">
-        <v>18.78154569535958</v>
+        <v>22.87947872068416</v>
       </c>
       <c r="H6">
-        <v>7.603084629902611</v>
+        <v>2.129030359306283</v>
       </c>
       <c r="I6">
-        <v>15.79660557735746</v>
+        <v>3.905425444039382</v>
       </c>
       <c r="J6">
-        <v>8.414824123601313</v>
+        <v>8.40268678369595</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.01623666362285</v>
       </c>
       <c r="L6">
-        <v>13.18661183424496</v>
+        <v>7.912078831726864</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>9.458684560567447</v>
       </c>
       <c r="O6">
-        <v>12.13806521021857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.03632553985584</v>
+      </c>
+      <c r="Q6">
+        <v>14.02427532259447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49232034433578</v>
+        <v>15.53081445837009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.478193199581265</v>
+        <v>6.883686007090303</v>
       </c>
       <c r="E7">
-        <v>12.33194171505179</v>
+        <v>11.52563960128222</v>
       </c>
       <c r="F7">
-        <v>15.84146989574578</v>
+        <v>19.36754148668932</v>
       </c>
       <c r="G7">
-        <v>19.02402908471013</v>
+        <v>23.25022411735641</v>
       </c>
       <c r="H7">
-        <v>7.597717705075656</v>
+        <v>2.070917875827821</v>
       </c>
       <c r="I7">
-        <v>15.74439155696603</v>
+        <v>3.874378499551168</v>
       </c>
       <c r="J7">
-        <v>8.454823554330433</v>
+        <v>8.436385674917092</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.94225198075011</v>
       </c>
       <c r="L7">
-        <v>13.4904008621947</v>
+        <v>7.94125477997386</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9.669258311992493</v>
       </c>
       <c r="O7">
-        <v>12.18261954537594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.07007245148576</v>
+      </c>
+      <c r="Q7">
+        <v>14.14800310650234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53202981173561</v>
+        <v>16.89020697348657</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.358149868763601</v>
+        <v>6.881264743677596</v>
       </c>
       <c r="E8">
-        <v>12.56644229044867</v>
+        <v>11.67413429083972</v>
       </c>
       <c r="F8">
-        <v>15.88209836610243</v>
+        <v>20.03921153268577</v>
       </c>
       <c r="G8">
-        <v>20.12687195941496</v>
+        <v>24.86464855948631</v>
       </c>
       <c r="H8">
-        <v>7.590400058403449</v>
+        <v>1.823342667065214</v>
       </c>
       <c r="I8">
-        <v>15.55582617251816</v>
+        <v>3.735606767908827</v>
       </c>
       <c r="J8">
-        <v>8.634078896396815</v>
+        <v>8.595118294423365</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.62911231337289</v>
       </c>
       <c r="L8">
-        <v>14.75501383524834</v>
+        <v>8.065164392029562</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>10.53336754522699</v>
       </c>
       <c r="O8">
-        <v>12.41259713453556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>14.21689852415091</v>
+      </c>
+      <c r="Q8">
+        <v>14.70547987472216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09571129604927</v>
+        <v>19.28556320588566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.146761330031825</v>
+        <v>6.88377215942597</v>
       </c>
       <c r="E9">
-        <v>13.05008058102326</v>
+        <v>11.95180616189098</v>
       </c>
       <c r="F9">
-        <v>16.18829078636801</v>
+        <v>21.39454569139548</v>
       </c>
       <c r="G9">
-        <v>22.38466120622085</v>
+        <v>27.88575048512524</v>
       </c>
       <c r="H9">
-        <v>7.639883695605764</v>
+        <v>1.7465456555862</v>
       </c>
       <c r="I9">
-        <v>15.35400233761916</v>
+        <v>3.472954365375341</v>
       </c>
       <c r="J9">
-        <v>8.9929767350554</v>
+        <v>8.934302753097441</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.05211921995991</v>
       </c>
       <c r="L9">
-        <v>16.96213985154685</v>
+        <v>8.295023378367045</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.03054320325005</v>
       </c>
       <c r="O9">
-        <v>12.98737292614303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>14.51109179091282</v>
+      </c>
+      <c r="Q9">
+        <v>15.81303292111932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.4504524094911</v>
+        <v>20.78935823856417</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.006292457382834</v>
+        <v>6.880853738268089</v>
       </c>
       <c r="E10">
-        <v>13.41688026738925</v>
+        <v>12.19692107479538</v>
       </c>
       <c r="F10">
-        <v>16.56602160479335</v>
+        <v>22.26335297654894</v>
       </c>
       <c r="G10">
-        <v>24.08369602261659</v>
+        <v>29.83354505860711</v>
       </c>
       <c r="H10">
-        <v>7.719571395880963</v>
+        <v>2.047134509915056</v>
       </c>
       <c r="I10">
-        <v>15.32477150461436</v>
+        <v>3.303222879257981</v>
       </c>
       <c r="J10">
-        <v>9.259014724560002</v>
+        <v>9.166308203799558</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.63225687464564</v>
       </c>
       <c r="L10">
-        <v>18.41854941309893</v>
+        <v>8.490858933656064</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.95893487011696</v>
       </c>
       <c r="O10">
-        <v>13.48715863866485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>14.77567414138749</v>
+      </c>
+      <c r="Q10">
+        <v>16.54990622797601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46521746289705</v>
+        <v>20.92948985086618</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.945667361509297</v>
+        <v>6.837356517906361</v>
       </c>
       <c r="E11">
-        <v>13.58561410984654</v>
+        <v>12.77090991524487</v>
       </c>
       <c r="F11">
-        <v>16.77350321046823</v>
+        <v>21.63145690222265</v>
       </c>
       <c r="G11">
-        <v>24.86239476803383</v>
+        <v>29.49819722900911</v>
       </c>
       <c r="H11">
-        <v>7.766125639346069</v>
+        <v>2.929838274780533</v>
       </c>
       <c r="I11">
-        <v>15.3409430635059</v>
+        <v>3.281131432542361</v>
       </c>
       <c r="J11">
-        <v>9.380127971549236</v>
+        <v>9.032460623389897</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.39109858504917</v>
       </c>
       <c r="L11">
-        <v>19.04563321415991</v>
+        <v>8.887954910724837</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.71784044421192</v>
       </c>
       <c r="O11">
-        <v>13.73151096861451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>15.18687277357413</v>
+      </c>
+      <c r="Q11">
+        <v>16.31637283018199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.84144015659048</v>
+        <v>20.76512334624246</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.923187008871554</v>
+        <v>6.830169348759779</v>
       </c>
       <c r="E12">
-        <v>13.64972890288456</v>
+        <v>13.29862541375572</v>
       </c>
       <c r="F12">
-        <v>16.85735262698625</v>
+        <v>20.92013919340343</v>
       </c>
       <c r="G12">
-        <v>25.1579122797239</v>
+        <v>28.82242962670915</v>
       </c>
       <c r="H12">
-        <v>7.78530518380459</v>
+        <v>4.190019097421062</v>
       </c>
       <c r="I12">
-        <v>15.35159920790339</v>
+        <v>3.280224830019475</v>
       </c>
       <c r="J12">
-        <v>9.42597032217574</v>
+        <v>8.869743295317715</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.32429116400782</v>
       </c>
       <c r="L12">
-        <v>19.27803447761011</v>
+        <v>9.227331713402464</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.29822946809017</v>
       </c>
       <c r="O12">
-        <v>13.8264834188695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>15.47591328880365</v>
+      </c>
+      <c r="Q12">
+        <v>15.96632340056726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.76077062013082</v>
+        <v>20.32319143594339</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.928007230784488</v>
+        <v>6.846305939032884</v>
       </c>
       <c r="E13">
-        <v>13.63591167775548</v>
+        <v>13.81589415473815</v>
       </c>
       <c r="F13">
-        <v>16.83905719620747</v>
+        <v>20.0654375126309</v>
       </c>
       <c r="G13">
-        <v>25.09424135199677</v>
+        <v>27.79057665391005</v>
       </c>
       <c r="H13">
-        <v>7.781104508488839</v>
+        <v>5.513906211902214</v>
       </c>
       <c r="I13">
-        <v>15.34909801270356</v>
+        <v>3.309283616744314</v>
       </c>
       <c r="J13">
-        <v>9.416098781807513</v>
+        <v>8.666431760076927</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.37624815183683</v>
       </c>
       <c r="L13">
-        <v>19.22820722235599</v>
+        <v>9.541850593963964</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.72745695493898</v>
       </c>
       <c r="O13">
-        <v>13.80592091947392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>15.69984807460846</v>
+      </c>
+      <c r="Q13">
+        <v>15.48253522029152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.49633039523659</v>
+        <v>19.87597550944202</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.943808290200377</v>
+        <v>6.870940558701923</v>
       </c>
       <c r="E14">
-        <v>13.59088476589601</v>
+        <v>14.18272622870672</v>
       </c>
       <c r="F14">
-        <v>16.78029495602009</v>
+        <v>19.39147886645439</v>
       </c>
       <c r="G14">
-        <v>24.88669525956412</v>
+        <v>26.88698462493708</v>
       </c>
       <c r="H14">
-        <v>7.76767209620057</v>
+        <v>6.462645364385515</v>
       </c>
       <c r="I14">
-        <v>15.34172724952445</v>
+        <v>3.345777404758574</v>
       </c>
       <c r="J14">
-        <v>9.383900047697525</v>
+        <v>8.50376613632317</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.47014929413996</v>
       </c>
       <c r="L14">
-        <v>19.06485423370508</v>
+        <v>9.756096732705219</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.25690843781552</v>
       </c>
       <c r="O14">
-        <v>13.73927551392083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>15.83081397209694</v>
+      </c>
+      <c r="Q14">
+        <v>15.07628087868361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.33330727942681</v>
+        <v>19.69884969718757</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.953549219044344</v>
+        <v>6.878398197805369</v>
       </c>
       <c r="E15">
-        <v>13.56333153368992</v>
+        <v>14.26116502592049</v>
       </c>
       <c r="F15">
-        <v>16.7449930873881</v>
+        <v>19.19231259576141</v>
       </c>
       <c r="G15">
-        <v>24.75964586124855</v>
+        <v>26.58202189917375</v>
       </c>
       <c r="H15">
-        <v>7.759648256896782</v>
+        <v>6.678581253538877</v>
       </c>
       <c r="I15">
-        <v>15.3378113343031</v>
+        <v>3.365352278742288</v>
       </c>
       <c r="J15">
-        <v>9.364173746026943</v>
+        <v>8.454844803908056</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.51358378366097</v>
       </c>
       <c r="L15">
-        <v>18.96413774160263</v>
+        <v>9.799079353314283</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.11404043186683</v>
       </c>
       <c r="O15">
-        <v>13.69877105413745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>15.85125904277313</v>
+      </c>
+      <c r="Q15">
+        <v>14.94606543721828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38300531971868</v>
+        <v>19.12676724951818</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.010320853371119</v>
+        <v>6.871513191243272</v>
       </c>
       <c r="E16">
-        <v>13.40588645727079</v>
+        <v>14.05285603711789</v>
       </c>
       <c r="F16">
-        <v>16.55319351382212</v>
+        <v>18.94774608209266</v>
       </c>
       <c r="G16">
-        <v>24.03290539207906</v>
+        <v>25.88162702717522</v>
       </c>
       <c r="H16">
-        <v>7.716742261136043</v>
+        <v>6.448160686048316</v>
       </c>
       <c r="I16">
-        <v>15.32433296190641</v>
+        <v>3.437827893900752</v>
       </c>
       <c r="J16">
-        <v>9.251098592603761</v>
+        <v>8.387606927206374</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.66895963633019</v>
       </c>
       <c r="L16">
-        <v>18.37685767283715</v>
+        <v>9.653691939167217</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>10.81332794971235</v>
       </c>
       <c r="O16">
-        <v>13.47153158975113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>15.69078911664922</v>
+      </c>
+      <c r="Q16">
+        <v>14.69963753603728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78562031503794</v>
+        <v>18.9281223431535</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.045991280724524</v>
+        <v>6.851605416283412</v>
       </c>
       <c r="E17">
-        <v>13.30974242890349</v>
+        <v>13.68771120581925</v>
       </c>
       <c r="F17">
-        <v>16.44478195609132</v>
+        <v>19.12932498234938</v>
       </c>
       <c r="G17">
-        <v>23.58840721484594</v>
+        <v>25.84417952867648</v>
       </c>
       <c r="H17">
-        <v>7.69310986493678</v>
+        <v>5.697997423511397</v>
       </c>
       <c r="I17">
-        <v>15.32382338026642</v>
+        <v>3.474622145058458</v>
       </c>
       <c r="J17">
-        <v>9.181729343358191</v>
+        <v>8.424764628830696</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.73783753139601</v>
       </c>
       <c r="L17">
-        <v>18.00752567994678</v>
+        <v>9.422617989467916</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10.8419522918766</v>
       </c>
       <c r="O17">
-        <v>13.3364812473829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>15.49815136486783</v>
+      </c>
+      <c r="Q17">
+        <v>14.73400935780136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43670541749901</v>
+        <v>19.05292030396398</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.066815798413669</v>
+        <v>6.830814442894511</v>
       </c>
       <c r="E18">
-        <v>13.25462229343554</v>
+        <v>13.17647088246023</v>
       </c>
       <c r="F18">
-        <v>16.38577500077399</v>
+        <v>19.70447803592845</v>
       </c>
       <c r="G18">
-        <v>23.33329812077397</v>
+        <v>26.38919751215253</v>
       </c>
       <c r="H18">
-        <v>7.680483077143367</v>
+        <v>4.425540726740264</v>
       </c>
       <c r="I18">
-        <v>15.32628660299536</v>
+        <v>3.47427160665677</v>
       </c>
       <c r="J18">
-        <v>9.141840462702232</v>
+        <v>8.556143941451248</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.75788672456085</v>
       </c>
       <c r="L18">
-        <v>17.79175708574447</v>
+        <v>9.106241761376772</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.15100017533705</v>
       </c>
       <c r="O18">
-        <v>13.26040442809084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>15.25156109974668</v>
+      </c>
+      <c r="Q18">
+        <v>15.01711656193474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31765410996401</v>
+        <v>19.38810612392361</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.07391931998049</v>
+        <v>6.829545466010109</v>
       </c>
       <c r="E19">
-        <v>13.23599195014067</v>
+        <v>12.66508032215625</v>
       </c>
       <c r="F19">
-        <v>16.3663661156099</v>
+        <v>20.51465716248214</v>
       </c>
       <c r="G19">
-        <v>23.24702443100319</v>
+        <v>27.31244558714804</v>
       </c>
       <c r="H19">
-        <v>7.676371616127836</v>
+        <v>3.02856908160298</v>
       </c>
       <c r="I19">
-        <v>15.32758494327888</v>
+        <v>3.459605797202387</v>
       </c>
       <c r="J19">
-        <v>9.128337635189791</v>
+        <v>8.743845937238872</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.76715279128346</v>
       </c>
       <c r="L19">
-        <v>17.71812714940075</v>
+        <v>8.786068175473662</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.69040455428533</v>
       </c>
       <c r="O19">
-        <v>13.23492099368522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15.00726319224569</v>
+      </c>
+      <c r="Q19">
+        <v>15.45573847049626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.8497625796429</v>
+        <v>20.34521718792002</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.04216220185396</v>
+        <v>6.876557639735815</v>
       </c>
       <c r="E20">
-        <v>13.31995893546968</v>
+        <v>12.14725208252642</v>
       </c>
       <c r="F20">
-        <v>16.45597476977305</v>
+        <v>21.98316516234586</v>
       </c>
       <c r="G20">
-        <v>23.63566895951586</v>
+        <v>29.26970914004036</v>
       </c>
       <c r="H20">
-        <v>7.695525094000173</v>
+        <v>1.966289290125543</v>
       </c>
       <c r="I20">
-        <v>15.32359020479334</v>
+        <v>3.374535216197584</v>
       </c>
       <c r="J20">
-        <v>9.189112985248975</v>
+        <v>9.092293209501658</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.72717727347544</v>
       </c>
       <c r="L20">
-        <v>18.04718699444214</v>
+        <v>8.450506692224465</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.76686371771386</v>
       </c>
       <c r="O20">
-        <v>13.35069193340649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>14.73667547485035</v>
+      </c>
+      <c r="Q20">
+        <v>16.32830640548062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.57422072365382</v>
+        <v>21.54041851575184</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.939154135630787</v>
+        <v>6.887674163939907</v>
       </c>
       <c r="E21">
-        <v>13.60410471080871</v>
+        <v>12.26534926206618</v>
       </c>
       <c r="F21">
-        <v>16.79741047203525</v>
+        <v>22.83767267003276</v>
       </c>
       <c r="G21">
-        <v>24.94764048129357</v>
+        <v>30.94664842519145</v>
       </c>
       <c r="H21">
-        <v>7.771574910415281</v>
+        <v>2.201708891707715</v>
       </c>
       <c r="I21">
-        <v>15.34376689625832</v>
+        <v>3.236096193638758</v>
       </c>
       <c r="J21">
-        <v>9.393358413581899</v>
+        <v>9.318190477484118</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.42785556752296</v>
       </c>
       <c r="L21">
-        <v>19.11297203823035</v>
+        <v>8.5503804260926</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.55555501024286</v>
       </c>
       <c r="O21">
-        <v>13.75878467357327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>14.89109098708647</v>
+      </c>
+      <c r="Q21">
+        <v>16.99470672617961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66860201581814</v>
+        <v>22.28022543407674</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.874616548478271</v>
+        <v>6.893881853027296</v>
       </c>
       <c r="E22">
-        <v>13.7910649135675</v>
+        <v>12.35893111414359</v>
       </c>
       <c r="F22">
-        <v>17.05138640143416</v>
+        <v>23.35206388004378</v>
       </c>
       <c r="G22">
-        <v>25.80877078714763</v>
+        <v>31.96665692373893</v>
       </c>
       <c r="H22">
-        <v>7.830344708463688</v>
+        <v>2.349134061920575</v>
       </c>
       <c r="I22">
-        <v>15.38350309117145</v>
+        <v>3.139099607315861</v>
       </c>
       <c r="J22">
-        <v>9.526710447117406</v>
+        <v>9.458131118045408</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.23587123073172</v>
       </c>
       <c r="L22">
-        <v>19.78003983242997</v>
+        <v>8.626500986099545</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.99360215628281</v>
       </c>
       <c r="O22">
-        <v>14.03972320171501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>14.99716789942631</v>
+      </c>
+      <c r="Q22">
+        <v>17.40399719504983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.08407716491262</v>
+        <v>21.90963504417388</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.908804464560683</v>
+        <v>6.892177662530723</v>
       </c>
       <c r="E23">
-        <v>13.6911820327097</v>
+        <v>12.30430541611994</v>
       </c>
       <c r="F23">
-        <v>16.91297148982817</v>
+        <v>23.09487189871907</v>
       </c>
       <c r="G23">
-        <v>25.34888411597647</v>
+        <v>31.44398197287769</v>
       </c>
       <c r="H23">
-        <v>7.798126676893189</v>
+        <v>2.271196919223516</v>
       </c>
       <c r="I23">
-        <v>15.35977020454058</v>
+        <v>3.179932321844132</v>
       </c>
       <c r="J23">
-        <v>9.455560796358737</v>
+        <v>9.387372988036498</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.34333133658114</v>
       </c>
       <c r="L23">
-        <v>19.42669823816541</v>
+        <v>8.582413389047563</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.74404654639128</v>
       </c>
       <c r="O23">
-        <v>13.88848158022753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>14.92892956154261</v>
+      </c>
+      <c r="Q23">
+        <v>17.19523176101555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82078090550149</v>
+        <v>20.40395004763304</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.04389234112474</v>
+        <v>6.884675321673488</v>
       </c>
       <c r="E24">
-        <v>13.31533956822249</v>
+        <v>12.10384584937351</v>
       </c>
       <c r="F24">
-        <v>16.45090416881475</v>
+        <v>22.08893939874037</v>
       </c>
       <c r="G24">
-        <v>23.61430054270463</v>
+        <v>29.38261165076523</v>
       </c>
       <c r="H24">
-        <v>7.694430184654479</v>
+        <v>1.969088727665055</v>
       </c>
       <c r="I24">
-        <v>15.32368706094331</v>
+        <v>3.356387936484154</v>
       </c>
       <c r="J24">
-        <v>9.185774861760688</v>
+        <v>9.116637327018196</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.74752590911686</v>
       </c>
       <c r="L24">
-        <v>18.02926681512201</v>
+        <v>8.419276838637254</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.78805017879852</v>
       </c>
       <c r="O24">
-        <v>13.34426240615735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>14.69287144721124</v>
+      </c>
+      <c r="Q24">
+        <v>16.38346949991911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17813400839745</v>
+        <v>18.63404979492081</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.201358345912448</v>
+        <v>6.879791692296906</v>
       </c>
       <c r="E25">
-        <v>12.91701245333826</v>
+        <v>11.88428052348202</v>
       </c>
       <c r="F25">
-        <v>16.07957463157559</v>
+        <v>20.99932717557953</v>
       </c>
       <c r="G25">
-        <v>21.76565215407545</v>
+        <v>27.05592654639241</v>
       </c>
       <c r="H25">
-        <v>7.619198396999451</v>
+        <v>1.629348255249234</v>
       </c>
       <c r="I25">
-        <v>15.38891663299801</v>
+        <v>3.556641211050171</v>
       </c>
       <c r="J25">
-        <v>8.895321321288124</v>
+        <v>8.83374037989307</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.19651865460266</v>
       </c>
       <c r="L25">
-        <v>16.39416963586402</v>
+        <v>8.238967227449796</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.67400490915622</v>
       </c>
       <c r="O25">
-        <v>12.81836154440496</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.44625423415039</v>
+      </c>
+      <c r="Q25">
+        <v>15.49866100880537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.26902272751402</v>
+        <v>17.18363936684917</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.883172719927369</v>
+        <v>6.685146589485093</v>
       </c>
       <c r="E2">
-        <v>11.70873503906963</v>
+        <v>11.33181232873726</v>
       </c>
       <c r="F2">
-        <v>20.2455205888784</v>
+        <v>20.2600698836149</v>
       </c>
       <c r="G2">
-        <v>25.31914695827406</v>
+        <v>24.89778392182122</v>
       </c>
       <c r="H2">
-        <v>1.757748848143298</v>
+        <v>1.662063526555953</v>
       </c>
       <c r="I2">
-        <v>3.688312823119174</v>
+        <v>3.461695945983635</v>
       </c>
       <c r="J2">
-        <v>8.644966309618681</v>
+        <v>9.33716739775541</v>
       </c>
       <c r="K2">
-        <v>14.55352845062464</v>
+        <v>14.03592437542517</v>
       </c>
       <c r="L2">
-        <v>8.094198668847893</v>
+        <v>11.11383085494923</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.557193908605957</v>
       </c>
       <c r="N2">
-        <v>10.73037236334764</v>
+        <v>7.896089233095379</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>14.24513733907306</v>
+        <v>10.75496112876263</v>
       </c>
       <c r="Q2">
-        <v>14.86966547331076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>14.09599112231704</v>
+      </c>
+      <c r="S2">
+        <v>14.92959890433585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23345901328112</v>
+        <v>16.1635996814847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.884236314204108</v>
+        <v>6.690099043300332</v>
       </c>
       <c r="E3">
-        <v>11.59396886724117</v>
+        <v>11.20825387927345</v>
       </c>
       <c r="F3">
-        <v>19.71218018261658</v>
+        <v>19.73734266355087</v>
       </c>
       <c r="G3">
-        <v>24.06644340421893</v>
+        <v>23.62627527052371</v>
       </c>
       <c r="H3">
-        <v>1.948330825752681</v>
+        <v>1.843305987289876</v>
       </c>
       <c r="I3">
-        <v>3.796215402741079</v>
+        <v>3.55563361922096</v>
       </c>
       <c r="J3">
-        <v>8.516705269936473</v>
+        <v>9.195457490393592</v>
       </c>
       <c r="K3">
-        <v>14.79506556675447</v>
+        <v>14.25837801537164</v>
       </c>
       <c r="L3">
-        <v>7.998582963208964</v>
+        <v>11.27655651612433</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.782287825746888</v>
       </c>
       <c r="N3">
-        <v>10.07460952406336</v>
+        <v>7.792816330067247</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>14.12947256701442</v>
+        <v>10.11196084043187</v>
       </c>
       <c r="Q3">
-        <v>14.42913155263392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.95684213463805</v>
+      </c>
+      <c r="S3">
+        <v>14.49641533705734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.55899987873794</v>
+        <v>15.49786290661192</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.885399043693082</v>
+        <v>6.693723704181339</v>
       </c>
       <c r="E4">
-        <v>11.52257849784484</v>
+        <v>11.13183305131438</v>
       </c>
       <c r="F4">
-        <v>19.38671087550822</v>
+        <v>19.41711919809696</v>
       </c>
       <c r="G4">
-        <v>23.27656648546566</v>
+        <v>22.8242448449635</v>
       </c>
       <c r="H4">
-        <v>2.069606014198337</v>
+        <v>1.958658075729141</v>
       </c>
       <c r="I4">
-        <v>3.865434545837279</v>
+        <v>3.616180903186603</v>
       </c>
       <c r="J4">
-        <v>8.440727375962059</v>
+        <v>9.108888457283966</v>
       </c>
       <c r="K4">
-        <v>14.94695837699364</v>
+        <v>14.39828502309074</v>
       </c>
       <c r="L4">
-        <v>7.938856647755024</v>
+        <v>11.38613066932885</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.929821427932151</v>
       </c>
       <c r="N4">
-        <v>9.651335966858838</v>
+        <v>7.728575297769718</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>14.06138325998551</v>
+        <v>9.699146872148949</v>
       </c>
       <c r="Q4">
-        <v>14.15917558722895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.87471247923112</v>
+      </c>
+      <c r="S4">
+        <v>14.23012475926802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.26710233310698</v>
+        <v>15.20951479342025</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.885472400923113</v>
+        <v>6.694824814272013</v>
       </c>
       <c r="E5">
-        <v>11.49425236295357</v>
+        <v>11.10151375767403</v>
       </c>
       <c r="F5">
-        <v>19.24952096505985</v>
+        <v>19.28193751059835</v>
       </c>
       <c r="G5">
-        <v>22.94325468940507</v>
+        <v>22.48599563550849</v>
       </c>
       <c r="H5">
-        <v>2.120307167514505</v>
+        <v>2.0068924986747</v>
       </c>
       <c r="I5">
-        <v>3.896920579834927</v>
+        <v>3.644558267984145</v>
       </c>
       <c r="J5">
-        <v>8.409303569966269</v>
+        <v>9.072656672880305</v>
       </c>
       <c r="K5">
-        <v>15.00807950540314</v>
+        <v>14.4543552727495</v>
       </c>
       <c r="L5">
-        <v>7.915061149764586</v>
+        <v>11.43010582702029</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.992659768550299</v>
       </c>
       <c r="N5">
-        <v>9.479891689548166</v>
+        <v>7.702961217644817</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>14.03704663651996</v>
+        <v>9.532668149108247</v>
       </c>
       <c r="Q5">
-        <v>14.04653140677088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.84465882448797</v>
+      </c>
+      <c r="S5">
+        <v>14.11887506592775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.2089617213761</v>
+        <v>15.15224150663304</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.884855775352174</v>
+        <v>6.694386828659547</v>
       </c>
       <c r="E6">
-        <v>11.49077586620316</v>
+        <v>11.09766318338437</v>
       </c>
       <c r="F6">
-        <v>19.22038334589451</v>
+        <v>19.25336403880593</v>
       </c>
       <c r="G6">
-        <v>22.87947872068416</v>
+        <v>22.42161126948021</v>
       </c>
       <c r="H6">
-        <v>2.129030359306283</v>
+        <v>2.015197623211448</v>
       </c>
       <c r="I6">
-        <v>3.905425444039382</v>
+        <v>3.653138819535461</v>
       </c>
       <c r="J6">
-        <v>8.40268678369595</v>
+        <v>9.065312276985871</v>
       </c>
       <c r="K6">
-        <v>15.01623666362285</v>
+        <v>14.46155414035042</v>
       </c>
       <c r="L6">
-        <v>7.912078831726864</v>
+        <v>11.43383454053467</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.00370945787606</v>
       </c>
       <c r="N6">
-        <v>9.458684560567447</v>
+        <v>7.699644015430607</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>14.03632553985584</v>
+        <v>9.512297623281064</v>
       </c>
       <c r="Q6">
-        <v>14.02427532259447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.84286970720575</v>
+      </c>
+      <c r="S6">
+        <v>14.09698924921794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.53081445837009</v>
+        <v>15.46767675412884</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.883686007090303</v>
+        <v>6.692580609354915</v>
       </c>
       <c r="E7">
-        <v>11.52563960128222</v>
+        <v>11.13248039927982</v>
       </c>
       <c r="F7">
-        <v>19.36754148668932</v>
+        <v>19.38491802789206</v>
       </c>
       <c r="G7">
-        <v>23.25022411735641</v>
+        <v>22.90219863781786</v>
       </c>
       <c r="H7">
-        <v>2.070917875827821</v>
+        <v>1.960492140065853</v>
       </c>
       <c r="I7">
-        <v>3.874378499551168</v>
+        <v>3.626875251378636</v>
       </c>
       <c r="J7">
-        <v>8.436385674917092</v>
+        <v>9.053931563117578</v>
       </c>
       <c r="K7">
-        <v>14.94225198075011</v>
+        <v>14.39276206845292</v>
       </c>
       <c r="L7">
-        <v>7.94125477997386</v>
+        <v>11.3761168422464</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.931832229762867</v>
       </c>
       <c r="N7">
-        <v>9.669258311992493</v>
+        <v>7.729803086452621</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>14.07007245148576</v>
+        <v>9.71200301091441</v>
       </c>
       <c r="Q7">
-        <v>14.14800310650234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.88412390015755</v>
+      </c>
+      <c r="S7">
+        <v>14.20563289198875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89020697348657</v>
+        <v>16.80260010163449</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.881264743677596</v>
+        <v>6.686372700166102</v>
       </c>
       <c r="E8">
-        <v>11.67413429083972</v>
+        <v>11.28651946385108</v>
       </c>
       <c r="F8">
-        <v>20.03921153268577</v>
+        <v>20.01425698802078</v>
       </c>
       <c r="G8">
-        <v>24.86464855948631</v>
+        <v>24.76137053214982</v>
       </c>
       <c r="H8">
-        <v>1.823342667065214</v>
+        <v>1.726233838910456</v>
       </c>
       <c r="I8">
-        <v>3.735606767908827</v>
+        <v>3.506917336611064</v>
       </c>
       <c r="J8">
-        <v>8.595118294423365</v>
+        <v>9.11843525618106</v>
       </c>
       <c r="K8">
-        <v>14.62911231337289</v>
+        <v>14.10354332053115</v>
       </c>
       <c r="L8">
-        <v>8.065164392029562</v>
+        <v>11.15535347482792</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.632722779255118</v>
       </c>
       <c r="N8">
-        <v>10.53336754522699</v>
+        <v>7.860835344487718</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>14.21689852415091</v>
+        <v>10.54615470864346</v>
       </c>
       <c r="Q8">
-        <v>14.70547987472216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>14.06307125213764</v>
+      </c>
+      <c r="S8">
+        <v>14.72444146345098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.28556320588566</v>
+        <v>19.15403066420074</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.88377215942597</v>
+        <v>6.679936347429624</v>
       </c>
       <c r="E9">
-        <v>11.95180616189098</v>
+        <v>11.58604789984729</v>
       </c>
       <c r="F9">
-        <v>21.39454569139548</v>
+        <v>21.32683551811219</v>
       </c>
       <c r="G9">
-        <v>27.88575048512524</v>
+        <v>27.87230678778181</v>
       </c>
       <c r="H9">
-        <v>1.7465456555862</v>
+        <v>1.819222496606722</v>
       </c>
       <c r="I9">
-        <v>3.472954365375341</v>
+        <v>3.277076521157898</v>
       </c>
       <c r="J9">
-        <v>8.934302753097441</v>
+        <v>9.438389383174618</v>
       </c>
       <c r="K9">
-        <v>14.05211921995991</v>
+        <v>13.57317686460977</v>
       </c>
       <c r="L9">
-        <v>8.295023378367045</v>
+        <v>10.81709192105862</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.121271896139994</v>
       </c>
       <c r="N9">
-        <v>12.03054320325005</v>
+        <v>8.109895399385966</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>14.51109179091282</v>
+        <v>12.02146574760602</v>
       </c>
       <c r="Q9">
-        <v>15.81303292111932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>14.41904559921386</v>
+      </c>
+      <c r="S9">
+        <v>15.80014548235885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.78935823856417</v>
+        <v>20.61868624301403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.880853738268089</v>
+        <v>6.674176231407218</v>
       </c>
       <c r="E10">
-        <v>12.19692107479538</v>
+        <v>11.83575396583805</v>
       </c>
       <c r="F10">
-        <v>22.26335297654894</v>
+        <v>22.09519893204879</v>
       </c>
       <c r="G10">
-        <v>29.83354505860711</v>
+        <v>30.36524819576883</v>
       </c>
       <c r="H10">
-        <v>2.047134509915056</v>
+        <v>2.101759798619836</v>
       </c>
       <c r="I10">
-        <v>3.303222879257981</v>
+        <v>3.132735073642572</v>
       </c>
       <c r="J10">
-        <v>9.166308203799558</v>
+        <v>9.37731977460337</v>
       </c>
       <c r="K10">
-        <v>13.63225687464564</v>
+        <v>13.1882227542434</v>
       </c>
       <c r="L10">
-        <v>8.490858933656064</v>
+        <v>10.61160617858906</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.783263253952473</v>
       </c>
       <c r="N10">
-        <v>12.95893487011696</v>
+        <v>8.314349030542555</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>14.77567414138749</v>
+        <v>12.91074484887509</v>
       </c>
       <c r="Q10">
-        <v>16.54990622797601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>14.7334264012296</v>
+      </c>
+      <c r="S10">
+        <v>16.4442456798374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.92948985086618</v>
+        <v>20.78123333423835</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.837356517906361</v>
+        <v>6.630531632072991</v>
       </c>
       <c r="E11">
-        <v>12.77090991524487</v>
+        <v>12.37779221195936</v>
       </c>
       <c r="F11">
-        <v>21.63145690222265</v>
+        <v>21.34961446386086</v>
       </c>
       <c r="G11">
-        <v>29.49819722900911</v>
+        <v>31.13563927330913</v>
       </c>
       <c r="H11">
-        <v>2.929838274780533</v>
+        <v>2.96150581769884</v>
       </c>
       <c r="I11">
-        <v>3.281131432542361</v>
+        <v>3.122601175473394</v>
       </c>
       <c r="J11">
-        <v>9.032460623389897</v>
+        <v>8.693326116794143</v>
       </c>
       <c r="K11">
-        <v>13.39109858504917</v>
+        <v>12.98514334359745</v>
       </c>
       <c r="L11">
-        <v>8.887954910724837</v>
+        <v>10.52644874628164</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.589977147177144</v>
       </c>
       <c r="N11">
-        <v>12.71784044421192</v>
+        <v>8.69848250605591</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>15.18687277357413</v>
+        <v>12.56725406079307</v>
       </c>
       <c r="Q11">
-        <v>16.31637283018199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>15.14894394471837</v>
+      </c>
+      <c r="S11">
+        <v>16.07839433922647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.76512334624246</v>
+        <v>20.65158912248078</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.830169348759779</v>
+        <v>6.615545689362529</v>
       </c>
       <c r="E12">
-        <v>13.29862541375572</v>
+        <v>12.87318381591083</v>
       </c>
       <c r="F12">
-        <v>20.92013919340343</v>
+        <v>20.60725518781851</v>
       </c>
       <c r="G12">
-        <v>28.82242962670915</v>
+        <v>30.99505924728946</v>
       </c>
       <c r="H12">
-        <v>4.190019097421062</v>
+        <v>4.210385508669908</v>
       </c>
       <c r="I12">
-        <v>3.280224830019475</v>
+        <v>3.123189541112528</v>
       </c>
       <c r="J12">
-        <v>8.869743295317715</v>
+        <v>8.304515257052344</v>
       </c>
       <c r="K12">
-        <v>13.32429116400782</v>
+        <v>12.93688727136169</v>
       </c>
       <c r="L12">
-        <v>9.227331713402464</v>
+        <v>10.53404123334201</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.520910414756521</v>
       </c>
       <c r="N12">
-        <v>12.29822946809017</v>
+        <v>9.023254981838962</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>15.47591328880365</v>
+        <v>12.08315228714265</v>
       </c>
       <c r="Q12">
-        <v>15.96632340056726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>15.42469285823042</v>
+      </c>
+      <c r="S12">
+        <v>15.67888845681621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.32319143594339</v>
+        <v>20.26382231589874</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.846305939032884</v>
+        <v>6.622935782645785</v>
       </c>
       <c r="E13">
-        <v>13.81589415473815</v>
+        <v>13.37162231122531</v>
       </c>
       <c r="F13">
-        <v>20.0654375126309</v>
+        <v>19.81479596894619</v>
       </c>
       <c r="G13">
-        <v>27.79057665391005</v>
+        <v>29.89530014999128</v>
       </c>
       <c r="H13">
-        <v>5.513906211902214</v>
+        <v>5.529929217533155</v>
       </c>
       <c r="I13">
-        <v>3.309283616744314</v>
+        <v>3.147982916927321</v>
       </c>
       <c r="J13">
-        <v>8.666431760076927</v>
+        <v>8.200160635900211</v>
       </c>
       <c r="K13">
-        <v>13.37624815183683</v>
+        <v>12.98802284368227</v>
       </c>
       <c r="L13">
-        <v>9.541850593963964</v>
+        <v>10.58160492072018</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.545779748270361</v>
       </c>
       <c r="N13">
-        <v>11.72745695493898</v>
+        <v>9.326449190942224</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>15.69984807460846</v>
+        <v>11.46892380803254</v>
       </c>
       <c r="Q13">
-        <v>15.48253522029152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>15.61668531594862</v>
+      </c>
+      <c r="S13">
+        <v>15.23765338178648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.87597550944202</v>
+        <v>19.86401975772566</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.870940558701923</v>
+        <v>6.643794014865878</v>
       </c>
       <c r="E14">
-        <v>14.18272622870672</v>
+        <v>13.73351979919089</v>
       </c>
       <c r="F14">
-        <v>19.39147886645439</v>
+        <v>19.22504180161225</v>
       </c>
       <c r="G14">
-        <v>26.88698462493708</v>
+        <v>28.6776350333565</v>
       </c>
       <c r="H14">
-        <v>6.462645364385515</v>
+        <v>6.477320466159391</v>
       </c>
       <c r="I14">
-        <v>3.345777404758574</v>
+        <v>3.17948249696143</v>
       </c>
       <c r="J14">
-        <v>8.50376613632317</v>
+        <v>8.243875989166147</v>
       </c>
       <c r="K14">
-        <v>13.47014929413996</v>
+        <v>13.06895925359077</v>
       </c>
       <c r="L14">
-        <v>9.756096732705219</v>
+        <v>10.6278144816638</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.612186636897736</v>
       </c>
       <c r="N14">
-        <v>11.25690843781552</v>
+        <v>9.534611424438349</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>15.83081397209694</v>
+        <v>10.97596971801323</v>
       </c>
       <c r="Q14">
-        <v>15.07628087868361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>15.71641453067022</v>
+      </c>
+      <c r="S14">
+        <v>14.90168275783102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.69884969718757</v>
+        <v>19.70252396045333</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.878398197805369</v>
+        <v>6.651857387435284</v>
       </c>
       <c r="E15">
-        <v>14.26116502592049</v>
+        <v>13.81517409497977</v>
       </c>
       <c r="F15">
-        <v>19.19231259576141</v>
+        <v>19.06367055635821</v>
       </c>
       <c r="G15">
-        <v>26.58202189917375</v>
+        <v>28.18114478219194</v>
       </c>
       <c r="H15">
-        <v>6.678581253538877</v>
+        <v>6.693283826286232</v>
       </c>
       <c r="I15">
-        <v>3.365352278742288</v>
+        <v>3.197374120635878</v>
       </c>
       <c r="J15">
-        <v>8.454844803908056</v>
+        <v>8.304150066739698</v>
       </c>
       <c r="K15">
-        <v>13.51358378366097</v>
+        <v>13.10517148263587</v>
       </c>
       <c r="L15">
-        <v>9.799079353314283</v>
+        <v>10.64153657469447</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.647862733189388</v>
       </c>
       <c r="N15">
-        <v>11.11404043186683</v>
+        <v>9.577366639985028</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>15.85125904277313</v>
+        <v>10.83099115170803</v>
       </c>
       <c r="Q15">
-        <v>14.94606543721828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>15.72561897832595</v>
+      </c>
+      <c r="S15">
+        <v>14.80588282580671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.12676724951818</v>
+        <v>19.16023995021462</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.871513191243272</v>
+        <v>6.657302813378429</v>
       </c>
       <c r="E16">
-        <v>14.05285603711789</v>
+        <v>13.64484548058057</v>
       </c>
       <c r="F16">
-        <v>18.94774608209266</v>
+        <v>18.95849145391361</v>
       </c>
       <c r="G16">
-        <v>25.88162702717522</v>
+        <v>26.52085871665087</v>
       </c>
       <c r="H16">
-        <v>6.448160686048316</v>
+        <v>6.435484663718453</v>
       </c>
       <c r="I16">
-        <v>3.437827893900752</v>
+        <v>3.259116015076872</v>
       </c>
       <c r="J16">
-        <v>8.387606927206374</v>
+        <v>8.730523323236969</v>
       </c>
       <c r="K16">
-        <v>13.66895963633019</v>
+        <v>13.23341460549734</v>
       </c>
       <c r="L16">
-        <v>9.653691939167217</v>
+        <v>10.64880571721617</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.807375556906786</v>
       </c>
       <c r="N16">
-        <v>10.81332794971235</v>
+        <v>9.44377210175502</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>15.69078911664922</v>
+        <v>10.56001484475273</v>
       </c>
       <c r="Q16">
-        <v>14.69963753603728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>15.53721052571779</v>
+      </c>
+      <c r="S16">
+        <v>14.70027709215367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.9281223431535</v>
+        <v>18.95474531903539</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.851605416283412</v>
+        <v>6.644425855330659</v>
       </c>
       <c r="E17">
-        <v>13.68771120581925</v>
+        <v>13.30274768974369</v>
       </c>
       <c r="F17">
-        <v>19.12932498234938</v>
+        <v>19.18367368979052</v>
       </c>
       <c r="G17">
-        <v>25.84417952867648</v>
+        <v>26.04274041091914</v>
       </c>
       <c r="H17">
-        <v>5.697997423511397</v>
+        <v>5.681500905516046</v>
       </c>
       <c r="I17">
-        <v>3.474622145058458</v>
+        <v>3.290706982644873</v>
       </c>
       <c r="J17">
-        <v>8.424764628830696</v>
+        <v>8.975439336413666</v>
       </c>
       <c r="K17">
-        <v>13.73783753139601</v>
+        <v>13.29335539057586</v>
       </c>
       <c r="L17">
-        <v>9.422617989467916</v>
+        <v>10.64428454005933</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.888932464617545</v>
       </c>
       <c r="N17">
-        <v>10.8419522918766</v>
+        <v>9.222117338050971</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>15.49815136486783</v>
+        <v>10.61886861074085</v>
       </c>
       <c r="Q17">
-        <v>14.73400935780136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>15.34264196150783</v>
+      </c>
+      <c r="S17">
+        <v>14.78613391297075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.05292030396398</v>
+        <v>19.04469224060366</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.830814442894511</v>
+        <v>6.627164732323126</v>
       </c>
       <c r="E18">
-        <v>13.17647088246023</v>
+        <v>12.80999981855078</v>
       </c>
       <c r="F18">
-        <v>19.70447803592845</v>
+        <v>19.7518516851558</v>
       </c>
       <c r="G18">
-        <v>26.38919751215253</v>
+        <v>26.37189081160286</v>
       </c>
       <c r="H18">
-        <v>4.425540726740264</v>
+        <v>4.452695278502143</v>
       </c>
       <c r="I18">
-        <v>3.47427160665677</v>
+        <v>3.2873442045863</v>
       </c>
       <c r="J18">
-        <v>8.556143941451248</v>
+        <v>9.183201417851361</v>
       </c>
       <c r="K18">
-        <v>13.75788672456085</v>
+        <v>13.31391064239688</v>
       </c>
       <c r="L18">
-        <v>9.106241761376772</v>
+        <v>10.63958538430914</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.917726533217873</v>
       </c>
       <c r="N18">
-        <v>11.15100017533705</v>
+        <v>8.916050379759348</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>15.25156109974668</v>
+        <v>10.97080858823574</v>
       </c>
       <c r="Q18">
-        <v>15.01711656193474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>15.11241285759068</v>
+      </c>
+      <c r="S18">
+        <v>15.0763130381379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.38810612392361</v>
+        <v>19.32947475113098</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.829545466010109</v>
+        <v>6.626082114605622</v>
       </c>
       <c r="E19">
-        <v>12.66508032215625</v>
+        <v>12.31081313805918</v>
       </c>
       <c r="F19">
-        <v>20.51465716248214</v>
+        <v>20.5274231021721</v>
       </c>
       <c r="G19">
-        <v>27.31244558714804</v>
+        <v>27.20235700182479</v>
       </c>
       <c r="H19">
-        <v>3.02856908160298</v>
+        <v>3.068836464919018</v>
       </c>
       <c r="I19">
-        <v>3.459605797202387</v>
+        <v>3.275421791677326</v>
       </c>
       <c r="J19">
-        <v>8.743845937238872</v>
+        <v>9.377442834124352</v>
       </c>
       <c r="K19">
-        <v>13.76715279128346</v>
+        <v>13.32304769362322</v>
       </c>
       <c r="L19">
-        <v>8.786068175473662</v>
+        <v>10.64898251951408</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.920519022701145</v>
       </c>
       <c r="N19">
-        <v>11.69040455428533</v>
+        <v>8.604733633463972</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>15.00726319224569</v>
+        <v>11.57936519973138</v>
       </c>
       <c r="Q19">
-        <v>15.45573847049626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>14.89415834386177</v>
+      </c>
+      <c r="S19">
+        <v>15.49802084427773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.34521718792002</v>
+        <v>20.19543323464771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.876557639735815</v>
+        <v>6.669010666691724</v>
       </c>
       <c r="E20">
-        <v>12.14725208252642</v>
+        <v>11.79332446812505</v>
       </c>
       <c r="F20">
-        <v>21.98316516234586</v>
+        <v>21.88772050122051</v>
       </c>
       <c r="G20">
-        <v>29.26970914004036</v>
+        <v>29.36712700789101</v>
       </c>
       <c r="H20">
-        <v>1.966289290125543</v>
+        <v>2.027281627729627</v>
       </c>
       <c r="I20">
-        <v>3.374535216197584</v>
+        <v>3.202136422006643</v>
       </c>
       <c r="J20">
-        <v>9.092293209501658</v>
+        <v>9.549067842435138</v>
       </c>
       <c r="K20">
-        <v>13.72717727347544</v>
+        <v>13.2768717811148</v>
       </c>
       <c r="L20">
-        <v>8.450506692224465</v>
+        <v>10.65285990234931</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.86040137826576</v>
       </c>
       <c r="N20">
-        <v>12.76686371771386</v>
+        <v>8.275415115543643</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>14.73667547485035</v>
+        <v>12.74200708281049</v>
       </c>
       <c r="Q20">
-        <v>16.32830640548062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>14.67610376469675</v>
+      </c>
+      <c r="S20">
+        <v>16.29173333953383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.54041851575184</v>
+        <v>21.3087488096292</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.887674163939907</v>
+        <v>6.689176472529191</v>
       </c>
       <c r="E21">
-        <v>12.26534926206618</v>
+        <v>11.87368766358648</v>
       </c>
       <c r="F21">
-        <v>22.83767267003276</v>
+        <v>22.42691041985179</v>
       </c>
       <c r="G21">
-        <v>30.94664842519145</v>
+        <v>32.95507181878972</v>
       </c>
       <c r="H21">
-        <v>2.201708891707715</v>
+        <v>2.241020142901827</v>
       </c>
       <c r="I21">
-        <v>3.236096193638758</v>
+        <v>3.086627351843593</v>
       </c>
       <c r="J21">
-        <v>9.318190477484118</v>
+        <v>8.695912867768911</v>
       </c>
       <c r="K21">
-        <v>13.42785556752296</v>
+        <v>12.99580580039958</v>
       </c>
       <c r="L21">
-        <v>8.5503804260926</v>
+        <v>10.52507426911904</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.617931948352991</v>
       </c>
       <c r="N21">
-        <v>13.55555501024286</v>
+        <v>8.363616565104415</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>14.89109098708647</v>
+        <v>13.45329843915791</v>
       </c>
       <c r="Q21">
-        <v>16.99470672617961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>14.89756461405987</v>
+      </c>
+      <c r="S21">
+        <v>16.65637951947887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.28022543407674</v>
+        <v>21.99627840339421</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.893881853027296</v>
+        <v>6.705341191562344</v>
       </c>
       <c r="E22">
-        <v>12.35893111414359</v>
+        <v>11.94195046586991</v>
       </c>
       <c r="F22">
-        <v>23.35206388004378</v>
+        <v>22.72288310293994</v>
       </c>
       <c r="G22">
-        <v>31.96665692373893</v>
+        <v>35.27885513013496</v>
       </c>
       <c r="H22">
-        <v>2.349134061920575</v>
+        <v>2.374441092011204</v>
       </c>
       <c r="I22">
-        <v>3.139099607315861</v>
+        <v>3.002099013595392</v>
       </c>
       <c r="J22">
-        <v>9.458131118045408</v>
+        <v>8.108526674302837</v>
       </c>
       <c r="K22">
-        <v>13.23587123073172</v>
+        <v>12.8156534656405</v>
       </c>
       <c r="L22">
-        <v>8.626500986099545</v>
+        <v>10.45277659268551</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.468478695241449</v>
       </c>
       <c r="N22">
-        <v>13.99360215628281</v>
+        <v>8.431397388245452</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>14.99716789942631</v>
+        <v>13.85384220140722</v>
       </c>
       <c r="Q22">
-        <v>17.40399719504983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>15.04815448413448</v>
+      </c>
+      <c r="S22">
+        <v>16.85627249496879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.90963504417388</v>
+        <v>21.65819234651474</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.892177662530723</v>
+        <v>6.696127229313547</v>
       </c>
       <c r="E23">
-        <v>12.30430541611994</v>
+        <v>11.9061388097568</v>
       </c>
       <c r="F23">
-        <v>23.09487189871907</v>
+        <v>22.61304554515478</v>
       </c>
       <c r="G23">
-        <v>31.44398197287769</v>
+        <v>33.85518631140366</v>
       </c>
       <c r="H23">
-        <v>2.271196919223516</v>
+        <v>2.304935948932724</v>
       </c>
       <c r="I23">
-        <v>3.179932321844132</v>
+        <v>3.033650838370084</v>
       </c>
       <c r="J23">
-        <v>9.387372988036498</v>
+        <v>8.532819397623761</v>
       </c>
       <c r="K23">
-        <v>13.34333133658114</v>
+        <v>12.91609948454198</v>
       </c>
       <c r="L23">
-        <v>8.582413389047563</v>
+        <v>10.49183736211583</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.553234455592625</v>
       </c>
       <c r="N23">
-        <v>13.74404654639128</v>
+        <v>8.394222785792511</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>14.92892956154261</v>
+        <v>13.6346347879736</v>
       </c>
       <c r="Q23">
-        <v>17.19523176101555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>14.95304081622816</v>
+      </c>
+      <c r="S23">
+        <v>16.78989296647248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.40395004763304</v>
+        <v>20.24811576395517</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.884675321673488</v>
+        <v>6.676640144180869</v>
       </c>
       <c r="E24">
-        <v>12.10384584937351</v>
+        <v>11.74966300808742</v>
       </c>
       <c r="F24">
-        <v>22.08893939874037</v>
+        <v>21.99049300496586</v>
       </c>
       <c r="G24">
-        <v>29.38261165076523</v>
+        <v>29.45694799498925</v>
       </c>
       <c r="H24">
-        <v>1.969088727665055</v>
+        <v>2.030314547465885</v>
       </c>
       <c r="I24">
-        <v>3.356387936484154</v>
+        <v>3.180677823330644</v>
       </c>
       <c r="J24">
-        <v>9.116637327018196</v>
+        <v>9.580271138213476</v>
       </c>
       <c r="K24">
-        <v>13.74752590911686</v>
+        <v>13.29374729226164</v>
       </c>
       <c r="L24">
-        <v>8.419276838637254</v>
+        <v>10.66484993147139</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.873927229471471</v>
       </c>
       <c r="N24">
-        <v>12.78805017879852</v>
+        <v>8.244283881982586</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>14.69287144721124</v>
+        <v>12.77082400561287</v>
       </c>
       <c r="Q24">
-        <v>16.38346949991911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>14.63451378359935</v>
+      </c>
+      <c r="S24">
+        <v>16.34630545136498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.63404979492081</v>
+        <v>18.51959644976003</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.879791692296906</v>
+        <v>6.677669396343064</v>
       </c>
       <c r="E25">
-        <v>11.88428052348202</v>
+        <v>11.51568026160188</v>
       </c>
       <c r="F25">
-        <v>20.99932717557953</v>
+        <v>20.96351510526656</v>
       </c>
       <c r="G25">
-        <v>27.05592654639241</v>
+        <v>26.89237130783613</v>
       </c>
       <c r="H25">
-        <v>1.629348255249234</v>
+        <v>1.708581954685809</v>
       </c>
       <c r="I25">
-        <v>3.556641211050171</v>
+        <v>3.354561679733115</v>
       </c>
       <c r="J25">
-        <v>8.83374037989307</v>
+        <v>9.414403115486715</v>
       </c>
       <c r="K25">
-        <v>14.19651865460266</v>
+        <v>13.70634598130105</v>
       </c>
       <c r="L25">
-        <v>8.238967227449796</v>
+        <v>10.89192019956014</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.247952240140513</v>
       </c>
       <c r="N25">
-        <v>11.67400490915622</v>
+        <v>8.049991517299214</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>14.44625423415039</v>
+        <v>11.67525527937794</v>
       </c>
       <c r="Q25">
-        <v>15.49866100880537</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.33518422637519</v>
+      </c>
+      <c r="S25">
+        <v>15.51375469061467</v>
       </c>
     </row>
   </sheetData>
